--- a/BotCadastrarAvaliador/assets/cadastro-de-avaliador-interno-externo.xlsx
+++ b/BotCadastrarAvaliador/assets/cadastro-de-avaliador-interno-externo.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr/>
+  <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Developer\.NET\BotCadastrarAvaliador\BotCadastrarAvaliador\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AED583-AC01-4D77-B7E4-A22D6259B040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51005812-45A9-480A-9E69-43478DAE56A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,10 @@
     <sheet name="Externos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Z_312FCE6F_1B75_4155_8869_7AF19FCC01E7_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$D$334</definedName>
-    <definedName name="Z_ADB5F798_9B33_46ED_813A_8874D882110B_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$D$334</definedName>
-    <definedName name="Z_B537ACDA_06F7_4B88_8897_16E39670631A_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$D$334</definedName>
-    <definedName name="Z_CA496FFB_694F_49A0_A4B3_8377D199B898_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$D$334</definedName>
+    <definedName name="Z_312FCE6F_1B75_4155_8869_7AF19FCC01E7_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$A$244</definedName>
+    <definedName name="Z_ADB5F798_9B33_46ED_813A_8874D882110B_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$A$244</definedName>
+    <definedName name="Z_B537ACDA_06F7_4B88_8897_16E39670631A_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$A$244</definedName>
+    <definedName name="Z_CA496FFB_694F_49A0_A4B3_8377D199B898_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$A$244</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="884">
   <si>
     <t>NOME</t>
   </si>
@@ -1955,969 +1955,321 @@
     <t>JANDHERSON MOURA SILVA</t>
   </si>
   <si>
-    <t>Carimbo de data/hora</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>Endereço de e-mail</t>
-  </si>
-  <si>
-    <t>Deseja participar do banco de avaliadores do Instituto Federal do Maranhão para avaliação de projetos de pesquisa?</t>
-  </si>
-  <si>
-    <t>PAULO SÉRGIO DE BRITO</t>
-  </si>
-  <si>
-    <t>pauloess@ifce.edu.br</t>
-  </si>
-  <si>
-    <t>Sim. Eu tenho disponibilidade para avaliar os projetos de pesquisa do IFMA.</t>
-  </si>
-  <si>
-    <t>Daniel Rosa Canêdo</t>
-  </si>
-  <si>
-    <t>daniel.canedo@ifg.edu.br</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rodson Glauber Ribeiro Chaves </t>
   </si>
   <si>
-    <t xml:space="preserve">rodson_ribeiro8@hotmail.com </t>
-  </si>
-  <si>
     <t>Marleide Coan Cardoso</t>
   </si>
   <si>
-    <t>marleide.cardoso@ifsc.edu.br</t>
-  </si>
-  <si>
     <t>Marcelo Nicomedes dos Reis Silva Filho</t>
   </si>
   <si>
-    <t>marcelo.nicomedes@ufma.br</t>
-  </si>
-  <si>
-    <t>Mário Wedney de Lima Moreira</t>
-  </si>
-  <si>
-    <t>mario.wedney@ifce.edu.br</t>
-  </si>
-  <si>
-    <t>André Flávio Gonçalves Silva</t>
-  </si>
-  <si>
-    <t>andre.flavio@ufma.br</t>
-  </si>
-  <si>
     <t>rubia valerio naves de souza</t>
   </si>
   <si>
-    <t>rubia@ifce.edu.br</t>
-  </si>
-  <si>
     <t>Maria Eliziane Pires de Souza</t>
   </si>
   <si>
-    <t>maria.eliziane@ufma.br</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kamila de Oliveira do Nascimento </t>
   </si>
   <si>
-    <t>kamila.nascimento@yahoo.com.br</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jefferson de Almeida Pinto </t>
   </si>
   <si>
-    <t xml:space="preserve">jefferson.pinto@ifsudestemg.edu.br </t>
-  </si>
-  <si>
     <t>Ivo Alexandre Leme da Cunha</t>
   </si>
   <si>
-    <t>ivo.cunha@ufma.br</t>
-  </si>
-  <si>
-    <t>Maria Flávia Azevedo da Penha</t>
-  </si>
-  <si>
-    <t>flavia.azevedo@ifce.edu.br</t>
-  </si>
-  <si>
     <t>Graciele Viccini Isaka</t>
   </si>
   <si>
-    <t>graciele.isaka@ifpr.edu.br</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gilmar Aires da Silva </t>
   </si>
   <si>
-    <t>gilmar.silva@ifg.edu.br</t>
-  </si>
-  <si>
     <t xml:space="preserve">Virlane Kelly Lima Hunaldo </t>
   </si>
   <si>
-    <t xml:space="preserve">Virlanekelly@gmail.com </t>
-  </si>
-  <si>
-    <t>Renato André Zan</t>
-  </si>
-  <si>
-    <t>renato.zan@ifro.edu.br</t>
-  </si>
-  <si>
     <t>Livio Martins Costa Junior</t>
   </si>
   <si>
-    <t>livioslz@yahoo.com</t>
-  </si>
-  <si>
     <t>Felipe Peixoto Poulis</t>
   </si>
   <si>
-    <t>fp.poulis@ufma.br</t>
-  </si>
-  <si>
-    <t>Alécio Matos Pereira</t>
-  </si>
-  <si>
-    <t>aleciomatos@gmail.com</t>
-  </si>
-  <si>
-    <t>Não. Neste momento não terei disponibilidade para avaliar os projetos de pesquisa do IFMA.</t>
-  </si>
-  <si>
     <t>Ivanilson Sousa da Costa</t>
   </si>
   <si>
-    <t>ivanilsonsousadacosta@gmail.com</t>
-  </si>
-  <si>
     <t>Felipe Polivanov Ottoni</t>
   </si>
   <si>
-    <t>fpottoni@gmail.com</t>
-  </si>
-  <si>
     <t>Isabella Cristina Moraes Campos</t>
   </si>
   <si>
-    <t>isabella.campos@ifsudestemg.edu.br</t>
-  </si>
-  <si>
-    <t>Patrícia Ribeiro Azevedo</t>
-  </si>
-  <si>
-    <t>prazevedo12@gmail.com</t>
-  </si>
-  <si>
     <t>Fernando Luiz Rosa Mussoi</t>
   </si>
   <si>
-    <t>mussoi@ifsc.edu.br</t>
-  </si>
-  <si>
-    <t>André Gustavo de Sousa Galdino</t>
-  </si>
-  <si>
-    <t>andregsg@ifes.edu.br</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marcos Augusto Paladini dos Santos </t>
   </si>
   <si>
-    <t>marcos.paladini@ifsp.edu.br</t>
-  </si>
-  <si>
     <t>Monic Fontenelle Carneiro</t>
   </si>
   <si>
-    <t>monicafcarneifo@gmail.com</t>
-  </si>
-  <si>
     <t>Guillermo Alfredo Johnson</t>
   </si>
   <si>
-    <t>guillermo.alfredo@ufma.br</t>
-  </si>
-  <si>
-    <t>Gloria da Ressurreicão Abreu Franca</t>
-  </si>
-  <si>
-    <t>gloria.franca@ufma.br</t>
-  </si>
-  <si>
     <t>Patricia Campos Mesquita</t>
   </si>
   <si>
-    <t>paty_mesquita@hotmail.com</t>
-  </si>
-  <si>
     <t>Wander Luiz Pereira dos Santos</t>
   </si>
   <si>
-    <t>wpereira@ifes.edu.br</t>
-  </si>
-  <si>
-    <t>Mário Mestria</t>
-  </si>
-  <si>
-    <t>mmestria@ifes.edu.br</t>
-  </si>
-  <si>
     <t>Isabel Cristina Adao Schiavon</t>
   </si>
   <si>
-    <t>Isabel.schiavon@ifsudestemg.edu.br</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jaunilson Francisco da Cruz </t>
   </si>
   <si>
-    <t>jcruz@iff.edu.br</t>
-  </si>
-  <si>
-    <t>Lucivânio Oliveira Silva</t>
-  </si>
-  <si>
-    <t>lucivanio.oliveiras@ifg.edu.br</t>
-  </si>
-  <si>
-    <t>Ana Cláudia de Oliveira da Silva</t>
-  </si>
-  <si>
-    <t>anaclaudia@iffarroupilha.edu.br</t>
-  </si>
-  <si>
     <t>Aline Freitas de Carvalho</t>
   </si>
   <si>
-    <t>alinegoval@gmail.com</t>
-  </si>
-  <si>
     <t>Fabio Costa Peixoto</t>
   </si>
   <si>
-    <t>fabiocope@gmail.com</t>
-  </si>
-  <si>
-    <t>Sueli de Souza Costa</t>
-  </si>
-  <si>
-    <t>scsueli@gmail.com</t>
-  </si>
-  <si>
     <t>Luciano Monteiro do Amaral</t>
   </si>
   <si>
-    <t>luciano.amaral@ifrr.edu.br</t>
-  </si>
-  <si>
-    <t>WALCYR DUARTE NASCIMENTO</t>
-  </si>
-  <si>
-    <t>WALCYR.NASCIMENTO@IFSUDESTEMG.EDU.BR</t>
-  </si>
-  <si>
     <t>Paulo Francis Florencio Dutra</t>
   </si>
   <si>
-    <t>paulo.dutra@ifms.edu.br</t>
-  </si>
-  <si>
-    <t>Olavo José Luiz Junior</t>
-  </si>
-  <si>
-    <t>olavo.junior@ifpr.edu.br</t>
-  </si>
-  <si>
     <t>Robson Alves da Silva</t>
   </si>
   <si>
-    <t>robson@ifpi.edu.br</t>
-  </si>
-  <si>
     <t>Brasilena Gottschall Pinto Trindade</t>
   </si>
   <si>
-    <t>brasilenat@hotmail.com</t>
-  </si>
-  <si>
-    <t>ANTONIO JOSÉ SILVA OLIVEIRA</t>
-  </si>
-  <si>
-    <t>antonio.oliveira@ufma.br</t>
-  </si>
-  <si>
     <t>Cristhianny Bento Barreiro</t>
   </si>
   <si>
-    <t>crisbbarreiro@gmail.com</t>
-  </si>
-  <si>
     <t>Maria Lindalva Gomes Leal</t>
   </si>
   <si>
-    <t>mrlindalva@gmail.com</t>
-  </si>
-  <si>
     <t>FLAVIA DE ALMEIDA MOURA</t>
   </si>
   <si>
-    <t>flavia.moura@ufma.br</t>
-  </si>
-  <si>
     <t>Angel Eduardo Obispo Vasquez</t>
   </si>
   <si>
-    <t>ae.obispo@gmail.com</t>
-  </si>
-  <si>
     <t>Marly dos Santos Alves</t>
   </si>
   <si>
-    <t>alves.marly2010@gmail.com</t>
-  </si>
-  <si>
     <t>Gerusa Ribeiro</t>
   </si>
   <si>
-    <t>gerusa@ifsc.edu.br</t>
-  </si>
-  <si>
-    <t>Rosana Gonçalves Barros</t>
-  </si>
-  <si>
-    <t>rosana.barros@ifg.edu.br</t>
-  </si>
-  <si>
     <t>Juarez Coelho Barroso</t>
   </si>
   <si>
-    <t>juarezcbarroso@gmail.com</t>
-  </si>
-  <si>
-    <t>Ulisses Magalhães Nascimento</t>
-  </si>
-  <si>
-    <t>ulisses.nascimento@ufma.br</t>
-  </si>
-  <si>
     <t>sheila de oliveira goulart</t>
   </si>
   <si>
-    <t>contadorasheila@hotmail.com</t>
-  </si>
-  <si>
     <t>Karine Matuchevski Balzan</t>
   </si>
   <si>
-    <t>kmatucha@hotmail.com</t>
-  </si>
-  <si>
-    <t>márcia de negreiros viana</t>
-  </si>
-  <si>
-    <t>marcia.viana@ifce.edu.br</t>
-  </si>
-  <si>
-    <t>CÍCERO COSTA QUARTO</t>
-  </si>
-  <si>
-    <t>cicero@engcomp.uema.br</t>
-  </si>
-  <si>
     <t>Anselmo Cardoso de Paiva</t>
   </si>
   <si>
-    <t>paiva@nca.ufma.br</t>
-  </si>
-  <si>
     <t>JANE LOPES</t>
   </si>
   <si>
-    <t>jane.mello@ufma.br</t>
-  </si>
-  <si>
-    <t>Claudia Rosa do Espirito Santo Nóbrega</t>
-  </si>
-  <si>
-    <t>claudiarrosa@gmail.com</t>
-  </si>
-  <si>
     <t>Ionara Nayana Gomes Passos</t>
   </si>
   <si>
-    <t>ionara.passos@ufma.br</t>
-  </si>
-  <si>
-    <t>Edilson Dantas Nóbrega</t>
-  </si>
-  <si>
-    <t>edilson.dantas@ufma.br</t>
-  </si>
-  <si>
     <t>HELMA JANE FERREIRA VELOSO</t>
   </si>
   <si>
-    <t>helmanut@gmail.com</t>
-  </si>
-  <si>
     <t>Michael Ramos Nunes</t>
   </si>
   <si>
-    <t>michael.nunes@ifsc.edu.br</t>
-  </si>
-  <si>
-    <t>GLÓRIA MARIA MARINHO SILVA</t>
-  </si>
-  <si>
-    <t>gloriamarinho@ifce.edu.br</t>
-  </si>
-  <si>
-    <t>Fabiana Calçada de Lamare Leite</t>
-  </si>
-  <si>
-    <t>fabianac@ifsc.edu.br</t>
-  </si>
-  <si>
     <t>Alexandre Cesar Muniz de Oliveira</t>
   </si>
   <si>
-    <t>alexandre.cesar@ufma.br</t>
-  </si>
-  <si>
-    <t>Márcia Antonia Guedes Molina</t>
-  </si>
-  <si>
-    <t>maguemol@yahoo.com.br</t>
-  </si>
-  <si>
     <t>JEOVANA NUNES RIBEIRO</t>
   </si>
   <si>
-    <t>jeovana.nunes@gmail.com</t>
-  </si>
-  <si>
-    <t>Everton Lopes Guimarães</t>
-  </si>
-  <si>
-    <t>everton.guimaraes@ifnmg.edu.br</t>
-  </si>
-  <si>
     <t>Mariana Aparecida de Oliveira Ribeiro</t>
   </si>
   <si>
-    <t>ribeiro.mariana@ufma.br</t>
-  </si>
-  <si>
     <t>Aloir Marcos Dietz</t>
   </si>
   <si>
-    <t>amd1971@gmail.com</t>
-  </si>
-  <si>
-    <t>José Carlos de Melo</t>
-  </si>
-  <si>
-    <t>mrzeca@terra.com.br</t>
-  </si>
-  <si>
     <t>Ismalia Cassandra Costa Maia Dias</t>
   </si>
   <si>
-    <t>ismalia.dias@ufma.br</t>
-  </si>
-  <si>
-    <t>Bárbara de Cerqueira Fiorio</t>
-  </si>
-  <si>
-    <t>barbaradecerqueira@gmail.com</t>
-  </si>
-  <si>
     <t>Antonio Fernando Lavareda Jacob Junior</t>
   </si>
   <si>
-    <t>antoniojunior@professor.uema.br</t>
-  </si>
-  <si>
     <t>Leandro Goulart</t>
   </si>
   <si>
-    <t>leo.goulart@gmail.com</t>
-  </si>
-  <si>
     <t>Alexandre Geraldo Viana Faria</t>
   </si>
   <si>
-    <t>alexandre.faria@ifms.edu.br</t>
-  </si>
-  <si>
     <t>Carlos Agostinho Almeida de Macedo Couto</t>
   </si>
   <si>
-    <t>carlos.couto@ufma.br</t>
-  </si>
-  <si>
     <t>LUSIA MARY ROLEMBERG MENACHO</t>
   </si>
   <si>
-    <t>lusia.menacho@ifpb.edu.br</t>
-  </si>
-  <si>
     <t>Wolney Heleno de Matos</t>
   </si>
   <si>
-    <t>whmatos@gmail.com</t>
-  </si>
-  <si>
-    <t>Luiz Claudio Gonçalves Gomes</t>
-  </si>
-  <si>
-    <t>luizclaudio.ub@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Angelica Aparecida Silva de Almeida </t>
   </si>
   <si>
-    <t>angelica.almeida@ifsudestemg.edu.br</t>
-  </si>
-  <si>
     <t>Adriana Crispim de Freitas</t>
   </si>
   <si>
-    <t>adrianaufma@gmail.com</t>
-  </si>
-  <si>
     <t>Alexsandra V. S. C. de Lima</t>
   </si>
   <si>
-    <t>alexsandra.costa@ifgoiano.edu.br</t>
-  </si>
-  <si>
     <t>Igo Tôrres Lima</t>
   </si>
   <si>
-    <t>igo.torres@ufma.br</t>
-  </si>
-  <si>
     <t>Floriacy Stabnow Santos</t>
   </si>
   <si>
-    <t>floriacys@gmail.com</t>
-  </si>
-  <si>
-    <t>Cláudia Maria Pinho de Abreu Pecegueiro</t>
-  </si>
-  <si>
-    <t>claudia.pecegueiro@ufma.br</t>
-  </si>
-  <si>
     <t>Francisca Aline Arrais Sampaio Santos</t>
   </si>
   <si>
-    <t>francisca.aline@ufma.br</t>
-  </si>
-  <si>
-    <t>Bruna Maria Paixão Castelo Branco</t>
-  </si>
-  <si>
-    <t>brunacastellobranco@gmail.com</t>
-  </si>
-  <si>
     <t>Ricardo Bezerra Hoffmann</t>
   </si>
   <si>
-    <t>ricardobhs@hotmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rodiney Marcelo Braga dos Santos </t>
   </si>
   <si>
-    <t>marcelllobraga@hotmail.com</t>
-  </si>
-  <si>
     <t>Mara Sirlei Lemos Peres</t>
   </si>
   <si>
-    <t>mslperes@bol.com.br</t>
-  </si>
-  <si>
-    <t>Francisco José Carvalho Moreira</t>
-  </si>
-  <si>
-    <t>franze.moreira@ifce.edu.br</t>
-  </si>
-  <si>
     <t>Liliane Chaves de Resende</t>
   </si>
   <si>
-    <t>liliane.resende@ifsudestemg.edu.br</t>
-  </si>
-  <si>
-    <t>Anna Christina Alcoforado Corrêa</t>
-  </si>
-  <si>
-    <t>acorrea@ifes.edu.br</t>
-  </si>
-  <si>
     <t>Giovani Batista de Souza</t>
   </si>
   <si>
-    <t>giovanisouza@ifsc.edu.br</t>
-  </si>
-  <si>
     <t>Janaina miranda Bezerra</t>
   </si>
   <si>
-    <t>janaina.mb@ufma.br</t>
-  </si>
-  <si>
     <t>Cristiane Navarrete Tolomei</t>
   </si>
   <si>
-    <t>cristiane.tolomei@ufma.br</t>
-  </si>
-  <si>
     <t>Simone Silva Machado</t>
   </si>
   <si>
-    <t>simone.machado@ifg.edu.br</t>
-  </si>
-  <si>
     <t>Pedro Henrique Almeida MIranda'</t>
   </si>
   <si>
-    <t>pedromiranda@ifce.edu.br</t>
-  </si>
-  <si>
-    <t>JOAO DALLYSON SOUSA DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>jdallyson@nca.ufma.br</t>
-  </si>
-  <si>
-    <t>Robinson Pizzio</t>
-  </si>
-  <si>
-    <t>robinson.pizzio@ifsc.edu.br</t>
-  </si>
-  <si>
     <t>Clovis Antonio Petry</t>
   </si>
   <si>
-    <t>petry@ifsc.edu.br</t>
-  </si>
-  <si>
     <t>Alessandro Costa Silva</t>
   </si>
   <si>
-    <t>alessandro.silva@pq.cnpq.br</t>
-  </si>
-  <si>
-    <t>Stelmo Magalhães Barros Netto</t>
-  </si>
-  <si>
-    <t>stelmo.netto@ufma.br</t>
-  </si>
-  <si>
     <t>Li-Chang Shuen Cristina Silva Sousa</t>
   </si>
   <si>
-    <t>lichangshuen@gmail.com</t>
-  </si>
-  <si>
     <t>Antonia da Silva Mota</t>
   </si>
   <si>
-    <t>as.mota@ufma.br</t>
-  </si>
-  <si>
     <t>Alana das Chagas Ferreira Aguiar</t>
   </si>
   <si>
-    <t>alana.aguiar@ufma.br</t>
-  </si>
-  <si>
     <t>Alinne da Silva</t>
   </si>
   <si>
-    <t>alinnesilva@uemasul.edu.br</t>
-  </si>
-  <si>
     <t>JEAN ROBERT PEREIRA RODRIGUES</t>
   </si>
   <si>
-    <t>jroberth@gmail.com</t>
-  </si>
-  <si>
     <t>Fabiano de Carvalho Simas</t>
   </si>
   <si>
-    <t>fc.simas@ufma.br</t>
-  </si>
-  <si>
     <t>Hudson do Vale de Oliveira</t>
   </si>
   <si>
-    <t>hudson.oliveira@ifrr.edu.br</t>
-  </si>
-  <si>
-    <t>José Solon Sales e Silva</t>
-  </si>
-  <si>
-    <t>solon@ifce.edu.br</t>
-  </si>
-  <si>
-    <t>ANA LUCIA FERNANDES PEREIRA</t>
-  </si>
-  <si>
-    <t>ana.fernandes@ufma.br</t>
-  </si>
-  <si>
     <t>Roosewelt Lins Silva</t>
   </si>
   <si>
-    <t>rooseweltl@gmail.com</t>
-  </si>
-  <si>
     <t>SIDNEI FRANCISCO DO NASCIMENTO</t>
   </si>
   <si>
-    <t>sidnei.fn@ufma.br</t>
-  </si>
-  <si>
     <t>oneida cristina gomes barcelos irigon</t>
   </si>
   <si>
-    <t>oneida.irigon@ifg.edu.br</t>
-  </si>
-  <si>
     <t>PAULO FERNANDO DIAS DINIZ</t>
   </si>
   <si>
-    <t>paulo.diniz@olinda.ifpe.edu.br</t>
-  </si>
-  <si>
-    <t>ROGÉRIO GROTTI</t>
-  </si>
-  <si>
-    <t>rogerio.grotti@ifro.edu.br</t>
-  </si>
-  <si>
-    <t>r.grotti@hotmail.com</t>
-  </si>
-  <si>
     <t>JOELINA MARIA DA SILVA SANTOS</t>
   </si>
   <si>
-    <t>JOELINAMSSANTOS@GMAIL.COM</t>
-  </si>
-  <si>
     <t>ESTELA M P POZZOBON</t>
   </si>
   <si>
-    <t>estela.pozzobon@iffarroupilha.edu.br</t>
-  </si>
-  <si>
-    <t>Débora Luana Ribeiro Pessoa</t>
-  </si>
-  <si>
-    <t>debbyeluna2@yahoo.com.br</t>
-  </si>
-  <si>
     <t>Luiz Carlos Ferreira</t>
   </si>
   <si>
-    <t>luiz.ferreira@ifnmg.edu.br</t>
-  </si>
-  <si>
-    <t>Michele de Oliveira Mendonça</t>
-  </si>
-  <si>
-    <t>michele.mendonca@ifsudestemg.edu.br</t>
-  </si>
-  <si>
     <t>Ivo Guilherme Ribeiro de Araujo</t>
   </si>
   <si>
-    <t>igravet@hotmail.com</t>
-  </si>
-  <si>
     <t>Mayka Danielle Brito Amaral</t>
   </si>
   <si>
-    <t>mbritoamaral@yahoo.com.br</t>
-  </si>
-  <si>
-    <t>Josédla Fraga Costa Carvalho</t>
-  </si>
-  <si>
-    <t>josedlafraga@yahoo.com.br</t>
-  </si>
-  <si>
     <t>Jocelio dos Santos Araujo</t>
   </si>
   <si>
-    <t>js.araujo@ufma.br</t>
-  </si>
-  <si>
-    <t>Luciana Brandão Ferreira</t>
-  </si>
-  <si>
-    <t>bfluciana@gmail.com</t>
-  </si>
-  <si>
-    <t>Plínio da Cunha Leal</t>
-  </si>
-  <si>
-    <t>pliniocunhaleal@hotmail.com</t>
-  </si>
-  <si>
-    <t>Elcio das Graça Lacerda</t>
-  </si>
-  <si>
-    <t>elciogl@ifes.edu.br</t>
-  </si>
-  <si>
     <t>Adriana Leandro Camara</t>
   </si>
   <si>
-    <t>camara202@hotmail.com</t>
-  </si>
-  <si>
     <t>Marcus Vinicius Snovarski Fonseca</t>
   </si>
   <si>
-    <t>marcus.fonseca@iffarroupiha.edu.br</t>
-  </si>
-  <si>
     <t>Michele Silva da Mata</t>
   </si>
   <si>
-    <t>michelemata.hl@gmail.com</t>
-  </si>
-  <si>
-    <t>Lara Patrícia de Lima Cavalcante</t>
-  </si>
-  <si>
-    <t>lara.cavalcante@ifpi.edu.br</t>
-  </si>
-  <si>
     <t>Felipe Fernandes de Oliveira</t>
   </si>
   <si>
-    <t>felipe.oliveira@ifms.edu.br</t>
-  </si>
-  <si>
     <t>Maria Aparecida Lucca Paranhos</t>
   </si>
   <si>
-    <t>maria.paranhos@iffarroupilha.edu.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> isabella.campos@ifsudestemg.edu.br</t>
-  </si>
-  <si>
     <t xml:space="preserve">Francisca Raimunda Nogueira Mendes </t>
   </si>
   <si>
-    <t xml:space="preserve">franciscarnmendes@gmail.com </t>
-  </si>
-  <si>
-    <t>JOÃO DALLYSON SOUSA DE ALMEIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Débora Luana Ribeiro Pessoa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">debbyeluna2@yahoo.com.br </t>
-  </si>
-  <si>
     <t>Angelica Aparecida Silva de Almeida</t>
   </si>
   <si>
-    <t>Angelica.almeida@ifsudestemg.Edu.br</t>
-  </si>
-  <si>
-    <t>Gilmar Aires da Silva</t>
-  </si>
-  <si>
-    <t>Hudson Veras</t>
-  </si>
-  <si>
-    <t>hudson.veras@ifac.edu.br</t>
-  </si>
-  <si>
     <t>Michelle de Oliveira Maia Parente</t>
   </si>
   <si>
-    <t>michellemrn14@gmail.com</t>
-  </si>
-  <si>
-    <t>Francisco Glaubos Nunes Clímaco</t>
-  </si>
-  <si>
-    <t>francisco.glaubos@ufma.br</t>
-  </si>
-  <si>
     <t>JEOAVANA NUNES RIBEIRO</t>
   </si>
   <si>
     <t>Pedro de Azevedo Castelo Branco</t>
   </si>
   <si>
-    <t>pedro@iff.edu.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mario.wedney@ifce.edu.br </t>
-  </si>
-  <si>
-    <t>Ana Déborah Pereira de Barros</t>
-  </si>
-  <si>
-    <t>anadeborahbarros@gmail.com</t>
-  </si>
-  <si>
     <t>Eliane Vieira Rosa</t>
   </si>
   <si>
-    <t>eliane.vieira@ifgoiano.edu.br</t>
-  </si>
-  <si>
     <t>Edson Firmino Viana de Carvalho</t>
   </si>
   <si>
-    <t>edson.carvalho@ufma.br</t>
-  </si>
-  <si>
     <t>Jorge Fernando Silva de Menezes</t>
   </si>
   <si>
-    <t>jorge_fernando@ufrb.edu.br</t>
-  </si>
-  <si>
     <t>MONICA FONTENELLE CARNEIRO</t>
   </si>
   <si>
-    <t xml:space="preserve">monicafcarneiro@gmail.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virlane.kelly@ufma.br </t>
-  </si>
-  <si>
     <t xml:space="preserve">Iza Reis Gomes </t>
   </si>
   <si>
-    <t xml:space="preserve">iza.reis@ifro.edu.br </t>
-  </si>
-  <si>
     <t>Aline Freitas da Silva de Carvalho</t>
   </si>
   <si>
@@ -2927,656 +2279,419 @@
     <t>Karla Suzy Andrade Pitombeira</t>
   </si>
   <si>
-    <t>karlasuzyandrade@gmail.com</t>
-  </si>
-  <si>
     <t>Norberto Bolzan</t>
   </si>
   <si>
-    <t>norberto.bolzan@iffaroupilha.edu.br</t>
-  </si>
-  <si>
-    <t>norberto.bolzan@yahoo.com.br</t>
-  </si>
-  <si>
-    <t>Lanuze Izabel Glicério Passos</t>
-  </si>
-  <si>
-    <t>lanuzecetec@gmail.com</t>
-  </si>
-  <si>
-    <t>cristhiannybarreiro@ifsul.edu.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michele de Oliveira Mendonça </t>
-  </si>
-  <si>
-    <t xml:space="preserve">michele.mendonca@ifsudestemg.edu.br </t>
-  </si>
-  <si>
     <t>Marcia de Negreiros  Viana</t>
   </si>
   <si>
-    <t xml:space="preserve">marcia.viana@ifce.edu.br </t>
-  </si>
-  <si>
     <t>Carla Medianeira Bertagnolli</t>
   </si>
   <si>
-    <t>carla.bertagnolli@iffarroupilha.edu.br</t>
-  </si>
-  <si>
     <t xml:space="preserve">Juarez Alves das Neves Junior </t>
   </si>
   <si>
-    <t>Juarez.alves@ifro.edu.br</t>
-  </si>
-  <si>
     <t xml:space="preserve">Carlos Agostinho Almeida de Macedo Couto </t>
   </si>
   <si>
-    <t xml:space="preserve">carlos.couto@ufma.br </t>
-  </si>
-  <si>
-    <t>Rita de Cássia Silva Luz</t>
-  </si>
-  <si>
-    <t>rita_rcsluz@yahoo.com.br</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ionara Nayana Gomes Passos </t>
   </si>
   <si>
-    <t>Luiz Cláudio Renouleau de Carvalho</t>
-  </si>
-  <si>
-    <t>luiz.carvalho@ifb.edu.br</t>
-  </si>
-  <si>
     <t>Daniely Verônica Viana Cardoso</t>
   </si>
   <si>
-    <t>daniely.veronika@gmail.com</t>
-  </si>
-  <si>
-    <t>patricia.campos@ifce.edu.br</t>
-  </si>
-  <si>
     <t>Sandro Morais Pimenta</t>
   </si>
   <si>
-    <t>sandro.morais@ifg.edu.br</t>
-  </si>
-  <si>
-    <t>leo.goulart@ gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elisangela Sousa de Araújo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">elisa_arroz@yahoo.com.br </t>
-  </si>
-  <si>
-    <t>fabio.peixoto@ifrj.edu.br</t>
-  </si>
-  <si>
     <t xml:space="preserve">Estela Mari Piveta pozzobon </t>
   </si>
   <si>
     <t xml:space="preserve">Marcelo Nicomedes dos Reis Silva Filho </t>
   </si>
   <si>
-    <t xml:space="preserve">Márcia Antonia Guedes Molina </t>
-  </si>
-  <si>
-    <t>marcia .molina@ufma.br</t>
-  </si>
-  <si>
     <t xml:space="preserve">Juliana Rocha de Faria Silva </t>
   </si>
   <si>
-    <t xml:space="preserve">juliana.silva@ifb.edu.br </t>
-  </si>
-  <si>
     <t>Sandra de Miranda Soares</t>
   </si>
   <si>
-    <t>smsoares.vj@gmail.com</t>
-  </si>
-  <si>
     <t>Walcyr Duarte Nascimento</t>
   </si>
   <si>
-    <t>walcyr.nascimento@ifsudestemg.edu.br</t>
-  </si>
-  <si>
-    <t>MARIA DAS GRAÇAS ALVES PEREIRA</t>
-  </si>
-  <si>
-    <t>maria.pereira@ifac.edu.br</t>
-  </si>
-  <si>
-    <t>Vinícius Alves Cardoso</t>
-  </si>
-  <si>
-    <t>viniciuscardoso.ufpi@gmail.com</t>
-  </si>
-  <si>
     <t>Claudia Maria Pinho de Abreu Pecegueiro</t>
   </si>
   <si>
-    <t>clpegueiro@gmail.com</t>
-  </si>
-  <si>
     <t>ELAYNE CRISTINA ROCHA DIAS</t>
   </si>
   <si>
-    <t>elaynedias2017@outlook.com</t>
-  </si>
-  <si>
     <t>Thayane Nascimento Freitas</t>
   </si>
   <si>
-    <t>thayanny_freitas@hotmail.com</t>
-  </si>
-  <si>
-    <t>Patricia Pedrosa BOtelho</t>
-  </si>
-  <si>
-    <t>patricia.botelho@ifsudestemg.edu.br</t>
-  </si>
-  <si>
     <t>Rejane Christine de Sousa Queiroz</t>
   </si>
   <si>
-    <t>queiroz.rejane@ufma.br</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ellery Henrique Barros da Silva </t>
   </si>
   <si>
-    <t xml:space="preserve">elleryhenrique@gmail.com </t>
-  </si>
-  <si>
-    <t>Paulo Sérgio de Brito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucele Gonçalves Lima Araújo </t>
-  </si>
-  <si>
-    <t>lucelearaujo@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kamila Nascimento </t>
   </si>
   <si>
-    <t>Kamila.nascimento@yahoo.com.br</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cyjara Orsano Machado </t>
   </si>
   <si>
-    <t>cyjara@hotmail.com</t>
-  </si>
-  <si>
     <t>Edson Almeida de Sousa</t>
   </si>
   <si>
-    <t>edsonsousa803@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Rogério Pinto do Nascimento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ndiego783@gmail.com </t>
-  </si>
-  <si>
     <t>Kaline Aguiar Gonzalez Vale</t>
   </si>
   <si>
-    <t>kalinegonzalez@hotmail.com</t>
-  </si>
-  <si>
-    <t>Fábio Lorenzi da Silva</t>
-  </si>
-  <si>
-    <t>fabiolorenzi@ifsul.edu.br</t>
-  </si>
-  <si>
     <t>Marcus Fonseca</t>
   </si>
   <si>
-    <t>marcus.fonseca@iffarroupilha.edu.br</t>
-  </si>
-  <si>
-    <t>Valquíria Ferreira Silva</t>
-  </si>
-  <si>
-    <t>val_design@hotmail.com</t>
-  </si>
-  <si>
     <t>Lecino Caldeira</t>
   </si>
   <si>
-    <t>lecino.caldeira@ifsudestemg.edu.br</t>
-  </si>
-  <si>
     <t>Edson Nunes Costa Paura</t>
   </si>
   <si>
-    <t>enigmaedson@hotmail.com</t>
-  </si>
-  <si>
-    <t>ricardo.hoffmann@ifac.edu.br</t>
-  </si>
-  <si>
-    <t>Cláudia Leite Munhoz</t>
-  </si>
-  <si>
-    <t>claudia.munhoz@ifms.edu.br</t>
-  </si>
-  <si>
     <t>Ricardo Anisio da Silva</t>
   </si>
   <si>
-    <t xml:space="preserve"> ricardo.silva@ifpb.edu.br</t>
-  </si>
-  <si>
-    <t>Flávia de Almeida Moura</t>
-  </si>
-  <si>
-    <t>ivo.araujo@ufma.br</t>
-  </si>
-  <si>
     <t>Luiz Fernando Rosa Mendes</t>
   </si>
   <si>
-    <t>lfmendes@iff.edu.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michelemata.hl@gmail.com </t>
-  </si>
-  <si>
     <t>Marcos Augusto Paladini dos Santos</t>
   </si>
   <si>
-    <t>marcos.paladii@ifsp.edu.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jefferson Machado de Assunção </t>
-  </si>
-  <si>
-    <t>jefferson.assuncao@ifrj.edu.br</t>
-  </si>
-  <si>
     <t>Rogerio Moreira Lima Silva</t>
   </si>
   <si>
-    <t>rogeriomls@uema.br</t>
-  </si>
-  <si>
-    <t>José Emílio Zanzirolani de Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  jose.zanzirolani@ifsudestemg.edu.br</t>
-  </si>
-  <si>
-    <t>Cléver Reis Stein</t>
-  </si>
-  <si>
-    <t>clever.stein@ifro.edu.br</t>
-  </si>
-  <si>
-    <t>PLINIO DA CUNHA LEAL</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ozimo Pereira Gama Filho </t>
   </si>
   <si>
-    <t>ozimogama@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">js.araujo@ufma.br </t>
-  </si>
-  <si>
-    <t>Gilda Vasconcellos de Andrade</t>
-  </si>
-  <si>
-    <t>gildavandrade@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Luiz da Silva </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jose.l.silva@unesp.br </t>
-  </si>
-  <si>
     <t>GEOVANIA FIGUEIREDO DA SILVA</t>
   </si>
   <si>
-    <t>geovania@ufpi.edu.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alana Evangelista Honório </t>
-  </si>
-  <si>
-    <t>lana_quim@yahoo.com.br</t>
-  </si>
-  <si>
     <t>NERILSON MARQUES LIMA</t>
   </si>
   <si>
-    <t>nerilsonmarques@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aureste de Sousa Lima </t>
   </si>
   <si>
-    <t>aurestelima@ufma.br</t>
-  </si>
-  <si>
     <t>Kamille Machado dos Santos</t>
   </si>
   <si>
-    <t>kamille.santos@uffs.edu.br</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ismael Ivan Rockenbach </t>
   </si>
   <si>
-    <t>ismael.rockenbach@academico.ufpb.br</t>
-  </si>
-  <si>
     <t>Danielle da Costa Silva</t>
   </si>
   <si>
-    <t>dcsdanielle@gmail.com</t>
-  </si>
-  <si>
     <t>Jefferson Messias Borges</t>
   </si>
   <si>
-    <t>jeffersonborges@live.com</t>
-  </si>
-  <si>
     <t>Marcos Antonio Cruz Moreira</t>
   </si>
   <si>
-    <t>macruz@iff.edu.br</t>
-  </si>
-  <si>
-    <t>Cíntia Guarienti</t>
-  </si>
-  <si>
-    <t>cintia.guarienti@iffarroupilha.edu.br</t>
-  </si>
-  <si>
-    <t>Cícero Quarto</t>
-  </si>
-  <si>
-    <t>ccquarto@hotmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Luis Carlos Alves Venancio </t>
   </si>
   <si>
-    <t xml:space="preserve">luiscvenancio@gmail.com </t>
-  </si>
-  <si>
     <t>SAMARA CARVALHO SAMPAIO</t>
   </si>
   <si>
-    <t>samara.sampaio@gmail.com</t>
-  </si>
-  <si>
-    <t>Pablo Batista Guimarães</t>
-  </si>
-  <si>
-    <t>pabloguimaraes@recife.ifpe.edu.br</t>
-  </si>
-  <si>
     <t>Claudio Marques de Oliveira</t>
   </si>
   <si>
-    <t>cmarques@iff.edu.br</t>
-  </si>
-  <si>
-    <t>Ana Lúcia Fernandes Pereira</t>
-  </si>
-  <si>
     <t>Tenho interesse</t>
   </si>
   <si>
-    <t>jleite@ufpi.edu.br</t>
-  </si>
-  <si>
-    <t>Letícia Virginia Leidens</t>
-  </si>
-  <si>
-    <t>lleidens@gmail.com</t>
-  </si>
-  <si>
-    <t>Jerciano Pinheiro Feijó</t>
-  </si>
-  <si>
-    <t>jercianopinheiro@ifce.edu.br</t>
-  </si>
-  <si>
-    <t>ADRIANA CRISPIM DE FREITAS</t>
-  </si>
-  <si>
-    <t>adriana.crispim@ufma.br</t>
-  </si>
-  <si>
-    <t>RODRIGO FREITAS GUIMARÃES</t>
-  </si>
-  <si>
-    <t>rodrigofg@ifce.edu.br</t>
-  </si>
-  <si>
     <t>Jeferson Kelvin Alves de Oliveira Silva</t>
   </si>
   <si>
-    <t>jefhtk@gmail.com</t>
-  </si>
-  <si>
-    <t>Adriana dos Reis Ferreira</t>
-  </si>
-  <si>
-    <t>adrina.ferreira@ifg.du.br</t>
-  </si>
-  <si>
     <t>Tiago Cunha Rocha</t>
   </si>
   <si>
-    <t>tiagocunroc@gmail.com</t>
-  </si>
-  <si>
     <t>Susana Cararo Confortin</t>
   </si>
   <si>
-    <t>susanaconfortin@gmail.com</t>
-  </si>
-  <si>
     <t>Samira Diniz Resende</t>
   </si>
   <si>
-    <t>samiradresende@gmail.com</t>
-  </si>
-  <si>
     <t>Claudia Rosa do Espirito Santo Nobrega</t>
   </si>
   <si>
-    <t>MÁRCIA DE NEGREIROS VIANA</t>
-  </si>
-  <si>
-    <t>Emanuela Costa Fernandes</t>
-  </si>
-  <si>
-    <t>emanuela.fernandes@ifac.edu.br</t>
-  </si>
-  <si>
     <t>Glauber Cruz</t>
   </si>
   <si>
-    <t>cruz.glauber@ufma.br</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cidllan Silveira Gomes Faial </t>
   </si>
   <si>
-    <t>cfaial@iff.edu.br</t>
-  </si>
-  <si>
-    <t>Alessandro Costa da Silva</t>
-  </si>
-  <si>
-    <t>alessandro@uema.br</t>
-  </si>
-  <si>
-    <t>Fernando José Figueiredo Agostinho d'Abreu Mendes</t>
-  </si>
-  <si>
-    <t>fjmendes@estesc.ipc.pt</t>
-  </si>
-  <si>
     <t>LAECIO NOBRE DE MACEDO</t>
   </si>
   <si>
-    <t>laecio.macedo@ufma.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tâmara Michelly Mendes Ribeiro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMAMICHELLY@GMAIL.COM </t>
-  </si>
-  <si>
     <t>Adriana Gomes Nogueira Ferreira</t>
   </si>
   <si>
-    <t>adriana.nogueira@ufma.br</t>
-  </si>
-  <si>
-    <t>Márcia Maria Costa Gomes</t>
-  </si>
-  <si>
-    <t>marcia.gomes@ifpb.edu.br</t>
-  </si>
-  <si>
     <t>Leila de Sena Cavalcante</t>
   </si>
   <si>
-    <t>leila.cavalcante@ifc.edu.br</t>
-  </si>
-  <si>
     <t>Paulla Vieira Rodrigues</t>
   </si>
   <si>
-    <t>rvpaulla@hotmail.com</t>
-  </si>
-  <si>
-    <t>SIDNEI F NASCIMENTO</t>
-  </si>
-  <si>
-    <t>sidnei.fn@bol.br</t>
-  </si>
-  <si>
-    <t>Camila Álvares dos Reis</t>
-  </si>
-  <si>
-    <t>cammi.reis@gmail.com</t>
-  </si>
-  <si>
     <t>Eduardo Silva dos Santos</t>
   </si>
   <si>
-    <t>santos.eduardo@ufma.br</t>
-  </si>
-  <si>
     <t>SUELI DE SOUZA COSTA</t>
   </si>
   <si>
-    <t>SCSUELI@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>Clara Virgínia Vieira Carvalho Oliveira Marques</t>
-  </si>
-  <si>
-    <t>clara.brasil@ufma.br</t>
-  </si>
-  <si>
     <t>Andreia Bentes</t>
   </si>
   <si>
-    <t>amlbentes@icloud.com</t>
-  </si>
-  <si>
-    <t>ROGERIO GROTTI</t>
-  </si>
-  <si>
-    <t>rogerio.grotti@iffarroupilha.edu.br</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wesley Lyeverton Correia Ribeiro </t>
   </si>
   <si>
-    <t xml:space="preserve">wesleylyeverton@yahoo.com.br </t>
-  </si>
-  <si>
     <t>Cristiano Silva Cardoso</t>
   </si>
   <si>
-    <t>ccardoso@uefs.br</t>
-  </si>
-  <si>
-    <t>monicafcarneiro@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dandara Scarlet Sousa Gomes Bacelar </t>
   </si>
   <si>
-    <t>dandarascarlet@gmail.com</t>
-  </si>
-  <si>
     <t>Rômulo Dayan Camelo Salgado</t>
   </si>
   <si>
-    <t>romulosalgadopi@hotmail.com</t>
-  </si>
-  <si>
     <t>Luciane  Janice Venturini da Silva</t>
   </si>
   <si>
-    <t>lu.ja.vent@gmail.com</t>
-  </si>
-  <si>
     <t>Suzana Medeiros Batista Amorim</t>
   </si>
   <si>
-    <t>suzana-amorim@uol.com.br</t>
-  </si>
-  <si>
     <t>Guilherme Alan Souza Costa</t>
   </si>
   <si>
-    <t>guilhermecosta@utfpr.edu.br</t>
-  </si>
-  <si>
     <t>Guilherme Ribeiro Rostas</t>
   </si>
   <si>
-    <t>Respondeu por e-mail</t>
+    <t>Ana Deborah Pereira de Barros</t>
+  </si>
+  <si>
+    <t>Andre Gustavo de Sousa Galdino</t>
+  </si>
+  <si>
+    <t>ANTONIO JOSe SILVA OLIVEIRA</t>
+  </si>
+  <si>
+    <t>Debora Luana Ribeiro Pessoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debora Luana Ribeiro Pessoa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego Rogerio Pinto do Nascimento </t>
+  </si>
+  <si>
+    <t>Fernando Jose Figueiredo Agostinho d'Abreu Mendes</t>
+  </si>
+  <si>
+    <t>Francisco Jose Carvalho Moreira</t>
+  </si>
+  <si>
+    <t>Jose Carlos de Melo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Luiz da Silva </t>
+  </si>
+  <si>
+    <t>Jose Solon Sales e Silva</t>
+  </si>
+  <si>
+    <t>Josedla Fraga Costa Carvalho</t>
+  </si>
+  <si>
+    <t>Lanuze Izabel Glicerio Passos</t>
+  </si>
+  <si>
+    <t>Olavo Jose Luiz Junior</t>
+  </si>
+  <si>
+    <t>Paulo Sergio de Brito</t>
+  </si>
+  <si>
+    <t>Renato Andre Zan</t>
+  </si>
+  <si>
+    <t>ROGeRIO GROTTI</t>
+  </si>
+  <si>
+    <t>Ana Lucia Fernandes Pereira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elisangela Sousa de Araujo </t>
+  </si>
+  <si>
+    <t>Ana Claudia de Oliveira da Silva</t>
+  </si>
+  <si>
+    <t>Barbara de Cerqueira Fiorio</t>
+  </si>
+  <si>
+    <t>Camila alvares dos Reis</t>
+  </si>
+  <si>
+    <t>Claudia Leite Munhoz</t>
+  </si>
+  <si>
+    <t>Fabio Lorenzi da Silva</t>
+  </si>
+  <si>
+    <t>Luiz Claudio Renouleau de Carvalho</t>
+  </si>
+  <si>
+    <t>Marcia Antonia Guedes Molina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcia Antonia Guedes Molina </t>
+  </si>
+  <si>
+    <t>MaRCIA DE NEGREIROS VIANA</t>
+  </si>
+  <si>
+    <t>Marcia Maria Costa Gomes</t>
+  </si>
+  <si>
+    <t>Maria Flavia Azevedo da Penha</t>
+  </si>
+  <si>
+    <t>Mario Mestria</t>
+  </si>
+  <si>
+    <t>Mario Wedney de Lima Moreira</t>
+  </si>
+  <si>
+    <t>Rita de Cassia Silva Luz</t>
+  </si>
+  <si>
+    <t>CiCERO COSTA QUARTO</t>
+  </si>
+  <si>
+    <t>Cicero Quarto</t>
+  </si>
+  <si>
+    <t>Cintia Guarienti</t>
+  </si>
+  <si>
+    <t>Clara Virginia Vieira Carvalho Oliveira Marques</t>
+  </si>
+  <si>
+    <t>Francisco Glaubos Nunes Climaco</t>
+  </si>
+  <si>
+    <t>Jose Emilio Zanzirolani de Oliveira</t>
+  </si>
+  <si>
+    <t>Lara Patricia de Lima Cavalcante</t>
+  </si>
+  <si>
+    <t>Leticia Virginia Leidens</t>
+  </si>
+  <si>
+    <t>Patricia Ribeiro Azevedo</t>
+  </si>
+  <si>
+    <t>Plinio da Cunha Leal</t>
+  </si>
+  <si>
+    <t>Valquiria Ferreira Silva</t>
+  </si>
+  <si>
+    <t>Vinicius Alves Cardoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alana Evangelista Honorio </t>
+  </si>
+  <si>
+    <t>Edilson Dantas Nobrega</t>
+  </si>
+  <si>
+    <t>GLoRIA MARIA MARINHO SILVA</t>
+  </si>
+  <si>
+    <t>Jerciano Pinheiro Feijo</t>
+  </si>
+  <si>
+    <t>Bruna Maria Paixao Castelo Branco</t>
+  </si>
+  <si>
+    <t>Everton Lopes Guimaraes</t>
+  </si>
+  <si>
+    <t>Gloria da Ressurreicao Abreu Franca</t>
+  </si>
+  <si>
+    <t>JOaO DALLYSON SOUSA DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>Luciana Brandao Ferreira</t>
+  </si>
+  <si>
+    <t>Pablo Batista Guimaraes</t>
+  </si>
+  <si>
+    <t>RODRIGO FREITAS GUIMARaES</t>
+  </si>
+  <si>
+    <t>Stelmo Magalhaes Barros Netto</t>
+  </si>
+  <si>
+    <t>Ulisses Magalhaes Nascimento</t>
+  </si>
+  <si>
+    <t>Andre Flavio Goncalves Silva</t>
+  </si>
+  <si>
+    <t>Elcio das Graca Lacerda</t>
+  </si>
+  <si>
+    <t>Fabiana Calcada de Lamare Leite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jefferson Machado de Assuncao </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucele Goncalves Lima Araujo </t>
+  </si>
+  <si>
+    <t>Luiz Claudio Goncalves Gomes</t>
+  </si>
+  <si>
+    <t>MARIA DAS GRAcAS ALVES PEREIRA</t>
+  </si>
+  <si>
+    <t>Michele de Oliveira Mendonca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michele de Oliveira Mendonca </t>
+  </si>
+  <si>
+    <t>Rosana Goncalves Barros</t>
+  </si>
+  <si>
+    <t>Anna Christina Alcoforado Correa</t>
+  </si>
+  <si>
+    <t>Daniel Rosa Canedo</t>
+  </si>
+  <si>
+    <t>Lucivanio Oliveira Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamara Michelly Mendes Ribeiro </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3607,25 +2722,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3640,37 +2743,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3881,7 +2983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Planilha1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B770"/>
@@ -3896,7 +2998,7 @@
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5084,7 +4186,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>232</v>
       </c>
@@ -7258,304 +6360,304 @@
         <v>364</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="2"/>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="2"/>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="2"/>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="2"/>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="2"/>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="2"/>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="2"/>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="2"/>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="2"/>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="2"/>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="2"/>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="2"/>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="2"/>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="2"/>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="2"/>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="2"/>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="2"/>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="2"/>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="2"/>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="2"/>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="2"/>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="2"/>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="2"/>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="2"/>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="2"/>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="2"/>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="2"/>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="2"/>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="2"/>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="2"/>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="2"/>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="2"/>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="2"/>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="2"/>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="2"/>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="2"/>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="2"/>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="2"/>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="2"/>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="2"/>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="2"/>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="2"/>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="2"/>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="2"/>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="2"/>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="2"/>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="2"/>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="2"/>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="2"/>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="2"/>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="2"/>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="2"/>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="2"/>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="2"/>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="2"/>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="2"/>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="2"/>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="2"/>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="2"/>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="2"/>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="2"/>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="2"/>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="2"/>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="2"/>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="2"/>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="2"/>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="2"/>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="2"/>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="2"/>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="2"/>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="2"/>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="2"/>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="2"/>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="2"/>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="2"/>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="2"/>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="2"/>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="2"/>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="2"/>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="2"/>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="2"/>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="2"/>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="2"/>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="2"/>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="2"/>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="2"/>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="2"/>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="2"/>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="2"/>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="2"/>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="2"/>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="2"/>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="2"/>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="2"/>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="2"/>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="2"/>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="2"/>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="2"/>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="2"/>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="2"/>
     </row>
   </sheetData>
@@ -7569,4710 +6671,1250 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Planilha2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J334"/>
+  <dimension ref="A1:A244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="111" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="18.85546875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="12.5703125" style="6"/>
+    <col min="1" max="1" width="40.85546875" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="12.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="6" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="6" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="6" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="6" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="6" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="6" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="6" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="6" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="6" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="6" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="6" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="6" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="6" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="6" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="6" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="6" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="6" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="6" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="6" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="6" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="6" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="6" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="6" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="6" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="6" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="6" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="6" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="6" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="6" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="6" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>44270.800329131947</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>819</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>44616.630248252317</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>44617.06167200231</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>44622.405551631949</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>44289.858213611107</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>917</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>918</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>44615.464423043981</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>917</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>918</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>44271.856819189816</v>
-      </c>
-      <c r="B8" s="8" t="s">
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="6" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="6" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="6" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="6" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="6" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="6" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="6" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="6" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="C8" s="8" t="s">
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="6" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="6" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="6" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="6" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="6" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="6" t="s">
         <v>869</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>44615.656497164353</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>868</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>869</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>44615.864641863431</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>44270.588145555557</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>44620.330596886575</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>44271.602946967592</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>860</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>861</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>44270.684333472222</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>784</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>785</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>44270.739923252317</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>806</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>44270.810806643523</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>821</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>44615.471582256941</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>961</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>721</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>44270.604984224541</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>721</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>44271.860592800927</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>870</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>871</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>44270.705957743055</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>44270.603008576392</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>719</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>44615.458805358794</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>948</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>949</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>44272.322839247689</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>44616.483405162042</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>881</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>44270.582228020838</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <v>44615.452822361112</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <v>44270.593451516208</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <v>44634.965893449073</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <v>44270.625096122691</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <v>44615.459110949072</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
-        <v>44615.454469583332</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>935</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
-        <v>44270.789229548609</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
-        <v>44271.324714560185</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>843</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>44641.371057430559</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>843</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>44270.643913622684</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>44615.494015046293</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
-        <v>44271.712855983795</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>866</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>867</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <v>44270.733617719903</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
-        <v>44615.502376770834</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
-        <v>44270.621339155092</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>738</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>739</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
-        <v>44615.914208703703</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
-        <v>44615.471785347225</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
-        <v>44270.724293414351</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
-        <v>44270.618671145829</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
-        <v>44270.943163807868</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
-        <v>44615.990860914353</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
-        <v>44270.881542129631</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
-        <v>44615.4646541088</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
-        <v>44670.91294263889</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
-        <v>44623.843827118057</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
-        <v>44623.844835752316</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
-        <v>44627.747348958335</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
-        <v>44627.748078726851</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
-        <v>44615.481887615737</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>975</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>976</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
-        <v>44270.749376724532</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
-        <v>44615.484489930561</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>980</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
-        <v>44270.643403958333</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
-        <v>44616.369358414348</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
-        <v>44618.520263148152</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
-        <v>44616.314883368061</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
-        <v>44634.468498692135</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
-        <v>44615.629058032406</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
-        <v>44615.547584548607</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
-        <v>44270.853086435185</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>826</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>827</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
-        <v>44617.629871516205</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>771</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
-        <v>44270.656827511571</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>771</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
-        <v>44616.428885405097</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="7">
-        <v>44615.717870601853</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
-        <v>44271.594777835649</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>858</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="7">
-        <v>44615.631693402778</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>858</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="7">
-        <v>44270.621462303243</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>741</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="7">
-        <v>44615.476033252315</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>970</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="7">
-        <v>44271.403683391203</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>848</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="7">
-        <v>44659.528580717597</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
-        <v>44615.573202002313</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="7">
-        <v>44671.912148599542</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="7">
-        <v>44270.578546550925</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="7">
-        <v>44615.975492685189</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="7">
-        <v>44615.492886377317</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>986</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>987</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="7">
-        <v>44274.986620081021</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>897</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="7">
-        <v>44615.454298229168</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>933</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>934</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="7">
-        <v>44615.580469733795</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="7">
-        <v>44270.658500902777</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="7">
-        <v>44615.914118692133</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="7">
-        <v>44615.579533159718</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="7">
-        <v>44615.4607927662</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>952</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>953</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="7">
-        <v>44615.622086157411</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="7">
-        <v>44624.757025497689</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="7">
-        <v>44615.551985891201</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="7">
-        <v>44284.930216342589</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>915</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="7">
-        <v>44615.459568171296</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>950</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>951</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="7">
-        <v>44615.506370937495</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>992</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>993</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="7">
-        <v>44615.557999282406</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="7">
-        <v>44617.886950879634</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="7">
-        <v>44274.85047892361</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>895</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>896</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="7">
-        <v>44615.507195925922</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>995</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>896</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="7">
-        <v>44270.698172326389</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>791</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="7">
-        <v>44270.683577442134</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>782</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="7">
-        <v>44271.938890081015</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>874</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>875</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="7">
-        <v>44270.605542453704</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>723</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="7">
-        <v>44615.506737650459</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>994</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="7">
-        <v>44615.594733611113</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="7">
-        <v>44295.432061006941</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>925</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>926</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="7">
-        <v>44618.418145208328</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>925</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>926</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="7">
-        <v>44270.587926574073</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>681</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="7">
-        <v>44615.78436283565</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>681</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="7">
-        <v>44270.589972523143</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="7">
-        <v>44615.512951296296</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="7">
-        <v>44615.511301678242</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="7">
-        <v>44621.592076041663</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="7">
-        <v>44270.592091180559</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="C111" s="8" t="s">
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="6" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="6" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="6" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="D111" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="7">
-        <v>44615.634612060181</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="7">
-        <v>44270.622409351854</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="7">
-        <v>44615.640506793978</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="7">
-        <v>44270.834200300931</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>824</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>825</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="7">
-        <v>44277.627604374997</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>824</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>825</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="7">
-        <v>44270.876268946755</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>828</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="7">
-        <v>44615.453282060189</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>930</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>931</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="7">
-        <v>44615.456580266204</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>942</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>943</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="7">
-        <v>44270.980152048607</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>838</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>839</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="7">
-        <v>44615.862881435183</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="7">
-        <v>44270.629515300927</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>751</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="7">
-        <v>44615.773760914351</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="7">
-        <v>44615.454941122684</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>937</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>674</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="7">
-        <v>44270.585859756946</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>674</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="7">
-        <v>44271.364477754629</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>844</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="7">
-        <v>44615.549754363426</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>844</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="7">
-        <v>44618.390135312497</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="7">
-        <v>44270.598208553245</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="7">
-        <v>44270.666272939816</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>780</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="7">
-        <v>44270.585851840282</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="7">
-        <v>44681.327918483796</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B133" s="10" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="7">
-        <v>44270.597879884255</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="7">
-        <v>44615.455766921295</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="7">
-        <v>44270.66160712963</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="7">
-        <v>44615.609425312505</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="7">
-        <v>44272.013895428245</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>876</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>877</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="7">
-        <v>44656.500429953703</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>876</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>877</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="7">
-        <v>44615.455394594908</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>938</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>939</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="7">
-        <v>44270.810977719906</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>823</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="7">
-        <v>44623.681408564815</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>823</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="7">
-        <v>44270.657536724539</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="7">
-        <v>44615.485724328704</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>983</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="7">
-        <v>44270.599410763883</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="7">
-        <v>44270.590855335649</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="7">
-        <v>44615.452521782412</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>929</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="7">
-        <v>44615.955963437504</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="7">
-        <v>44270.72135295139</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>798</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="7">
-        <v>44616.399924675927</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>798</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="7">
-        <v>44270.589807071759</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="7">
-        <v>44615.514804027778</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="7">
-        <v>44270.584230868059</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="7">
-        <v>44277.62864383102</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>903</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>904</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="7">
-        <v>44615.645796377314</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>903</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="7">
-        <v>44615.469306493054</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>959</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>960</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="7">
-        <v>44271.384758749999</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="7">
-        <v>44270.653019780089</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>768</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="7">
-        <v>44270.600368194442</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="7">
-        <v>44271.889355150459</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>872</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>873</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="7">
-        <v>44616.96692324074</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="7">
-        <v>44270.583645601851</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="7">
-        <v>44615.698279675926</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="7">
-        <v>44615.990217245373</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="7">
-        <v>44615.457406261572</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>944</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="7">
-        <v>44270.695556435181</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="7">
-        <v>44616.6143228125</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="7">
-        <v>44271.506945578702</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>854</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>855</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="7">
-        <v>44615.453498067131</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>932</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>855</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="7">
-        <v>44278.902992291667</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>909</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>910</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="7">
-        <v>44615.773114814816</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>909</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D171" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="7">
-        <v>44274.560292442126</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>893</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>894</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="7">
-        <v>44615.46184181713</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>954</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>955</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="7">
-        <v>44270.716148715277</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>796</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="7">
-        <v>44615.713577650458</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>796</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="7">
-        <v>44615.716635335644</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="7">
-        <v>44615.860022789348</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D177" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="7">
-        <v>44272.019239918984</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>878</v>
-      </c>
-      <c r="C178" s="8" t="s">
-        <v>879</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="7">
-        <v>44278.507667129626</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>907</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>908</v>
-      </c>
-      <c r="D179" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="7">
-        <v>44615.482609108796</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>977</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>978</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="7">
-        <v>44270.633743206017</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="C181" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="D181" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="7">
-        <v>44615.452457291671</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="C182" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="D182" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="7">
-        <v>44615.516409907403</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>999</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D183" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="7">
-        <v>44615.583048784727</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C184" s="8" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D184" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="7">
-        <v>44270.583229351847</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="D185" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="7">
-        <v>44615.569672164347</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C186" s="8" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D186" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="7">
-        <v>44615.922934733797</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C187" s="8" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D187" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="7">
-        <v>44270.640305300927</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="C188" s="8" t="s">
-        <v>761</v>
-      </c>
-      <c r="D188" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="7">
-        <v>44615.472770451393</v>
-      </c>
-      <c r="B189" s="8" t="s">
-        <v>963</v>
-      </c>
-      <c r="C189" s="8" t="s">
-        <v>964</v>
-      </c>
-      <c r="D189" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="7">
-        <v>44615.47311550926</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>963</v>
-      </c>
-      <c r="C190" s="8" t="s">
-        <v>964</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="7">
-        <v>44621.865228148148</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C191" s="8" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D191" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="7">
-        <v>44615.475580625003</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>968</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>969</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="7">
-        <v>44294.556023645833</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>923</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>924</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="7">
-        <v>44270.737858043984</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="7">
-        <v>44615.498346643522</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>991</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="7">
-        <v>44615.611372175925</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="7">
-        <v>44622.603755567128</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="7">
-        <v>44616.497391365745</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="7">
-        <v>44271.686421307866</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>864</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>865</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="7">
-        <v>44270.980359745372</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>840</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>841</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="7">
-        <v>44270.587371076384</v>
-      </c>
-      <c r="B201" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="C201" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="7">
-        <v>44622.881773425921</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="C202" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="7">
-        <v>44615.564890844907</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C203" s="8" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D203" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="7">
-        <v>44281.667895057872</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>911</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>912</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="7">
-        <v>44677.590846388892</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="7">
-        <v>44270.608655972217</v>
-      </c>
-      <c r="B206" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="C206" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="7">
-        <v>44270.601798530093</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>716</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>717</v>
-      </c>
-      <c r="D207" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="7">
-        <v>44615.497315428242</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>716</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>717</v>
-      </c>
-      <c r="D208" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="7">
-        <v>44616.377905879628</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C209" s="8" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D209" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="7">
-        <v>44277.340909328705</v>
-      </c>
-      <c r="B210" s="8" t="s">
-        <v>899</v>
-      </c>
-      <c r="C210" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="D210" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="7">
-        <v>44615.47222063657</v>
-      </c>
-      <c r="B211" s="8" t="s">
-        <v>899</v>
-      </c>
-      <c r="C211" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="D211" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="7">
-        <v>44270.772689166668</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="C212" s="8" t="s">
-        <v>815</v>
-      </c>
-      <c r="D212" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="7">
-        <v>44615.656294004628</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="C213" s="8" t="s">
-        <v>815</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="7">
-        <v>44615.486365694444</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>984</v>
-      </c>
-      <c r="C214" s="8" t="s">
-        <v>985</v>
-      </c>
-      <c r="D214" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="7">
-        <v>44615.650464363425</v>
-      </c>
-      <c r="B215" s="8" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C215" s="8" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="7">
-        <v>44270.765179224538</v>
-      </c>
-      <c r="B216" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="C216" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="7">
-        <v>44270.967431527781</v>
-      </c>
-      <c r="B217" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="C217" s="8" t="s">
-        <v>837</v>
-      </c>
-      <c r="D217" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="7">
-        <v>44270.581466597221</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="C218" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="D218" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="7">
-        <v>44615.51226131944</v>
-      </c>
-      <c r="B219" s="8" t="s">
-        <v>996</v>
-      </c>
-      <c r="C219" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="D219" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="7">
-        <v>44270.690312939812</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>786</v>
-      </c>
-      <c r="C220" s="8" t="s">
-        <v>787</v>
-      </c>
-      <c r="D220" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="7">
-        <v>44615.516179479164</v>
-      </c>
-      <c r="B221" s="8" t="s">
-        <v>997</v>
-      </c>
-      <c r="C221" s="8" t="s">
-        <v>998</v>
-      </c>
-      <c r="D221" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="7">
-        <v>44615.479155844907</v>
-      </c>
-      <c r="B222" s="8" t="s">
-        <v>973</v>
-      </c>
-      <c r="C222" s="8" t="s">
-        <v>974</v>
-      </c>
-      <c r="D222" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="7">
-        <v>44270.642413148147</v>
-      </c>
-      <c r="B223" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="C223" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="7">
-        <v>44617.646231296298</v>
-      </c>
-      <c r="B224" s="8" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C224" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="D224" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="7">
-        <v>44622.421893738428</v>
-      </c>
-      <c r="B225" s="8" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C225" s="8" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D225" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="7">
-        <v>44616.293740000001</v>
-      </c>
-      <c r="B226" s="8" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C226" s="8" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D226" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="7">
-        <v>44619.689885509259</v>
-      </c>
-      <c r="B227" s="8" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C227" s="8" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D227" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="7">
-        <v>44615.671844884258</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C228" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D228" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="7">
-        <v>44270.593571585647</v>
-      </c>
-      <c r="B229" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="C229" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="D229" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="7">
-        <v>44615.603101423607</v>
-      </c>
-      <c r="B230" s="8" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C230" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D230" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="7">
-        <v>44292.48266115741</v>
-      </c>
-      <c r="B231" s="8" t="s">
-        <v>919</v>
-      </c>
-      <c r="C231" s="8" t="s">
-        <v>920</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="7">
-        <v>44370.657654201394</v>
-      </c>
-      <c r="B232" s="8" t="s">
-        <v>927</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>928</v>
-      </c>
-      <c r="D232" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="7">
-        <v>44615.536806180557</v>
-      </c>
-      <c r="B233" s="8" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C233" s="8" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D233" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="7">
-        <v>44270.58312653935</v>
-      </c>
-      <c r="B234" s="8" t="s">
-        <v>661</v>
-      </c>
-      <c r="C234" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="D234" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="7">
-        <v>44615.459285578705</v>
-      </c>
-      <c r="B235" s="8" t="s">
-        <v>661</v>
-      </c>
-      <c r="C235" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="D235" s="8" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="7">
-        <v>44270.584301469906</v>
-      </c>
-      <c r="B236" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="C236" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="D236" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="7">
-        <v>44270.622384467591</v>
-      </c>
-      <c r="B237" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="C237" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="D237" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="7">
-        <v>44615.467802719912</v>
-      </c>
-      <c r="B238" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="C238" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="D238" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="7">
-        <v>44270.704389270832</v>
-      </c>
-      <c r="B239" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="C239" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="D239" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="7">
-        <v>44615.455118240745</v>
-      </c>
-      <c r="B240" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="C240" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="D240" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="7">
-        <v>44270.599336493055</v>
-      </c>
-      <c r="B241" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="C241" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="D241" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="7">
-        <v>44615.556397569446</v>
-      </c>
-      <c r="B242" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="C242" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="D242" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="7">
-        <v>44270.581679895833</v>
-      </c>
-      <c r="B243" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="C243" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="D243" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="7">
-        <v>44270.735014027778</v>
-      </c>
-      <c r="B244" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="C244" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="D244" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="7">
-        <v>44615.458407233797</v>
-      </c>
-      <c r="B245" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="C245" s="8" t="s">
-        <v>947</v>
-      </c>
-      <c r="D245" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="7">
-        <v>44270.580093750003</v>
-      </c>
-      <c r="B246" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="C246" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="D246" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="7">
-        <v>44615.577955578701</v>
-      </c>
-      <c r="B247" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="C247" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="D247" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="7">
-        <v>44270.627316585647</v>
-      </c>
-      <c r="B248" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="C248" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="D248" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="7">
-        <v>44617.842838599536</v>
-      </c>
-      <c r="B249" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="C249" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="D249" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="7">
-        <v>44277.886490532408</v>
-      </c>
-      <c r="B250" s="8" t="s">
-        <v>905</v>
-      </c>
-      <c r="C250" s="8" t="s">
-        <v>906</v>
-      </c>
-      <c r="D250" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="7">
-        <v>44270.663913321754</v>
-      </c>
-      <c r="B251" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="C251" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="D251" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="7">
-        <v>44270.664650057872</v>
-      </c>
-      <c r="B252" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="C252" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="D252" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="7">
-        <v>44277.499465115739</v>
-      </c>
-      <c r="B253" s="8" t="s">
-        <v>901</v>
-      </c>
-      <c r="C253" s="8" t="s">
-        <v>902</v>
-      </c>
-      <c r="D253" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="7">
-        <v>44615.478490034722</v>
-      </c>
-      <c r="B254" s="8" t="s">
-        <v>971</v>
-      </c>
-      <c r="C254" s="8" t="s">
-        <v>972</v>
-      </c>
-      <c r="D254" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="7">
-        <v>44294.377377407407</v>
-      </c>
-      <c r="B255" s="8" t="s">
-        <v>921</v>
-      </c>
-      <c r="C255" s="8" t="s">
-        <v>922</v>
-      </c>
-      <c r="D255" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="7">
-        <v>44615.6716996412</v>
-      </c>
-      <c r="B256" s="8" t="s">
-        <v>921</v>
-      </c>
-      <c r="C256" s="8" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D256" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="7">
-        <v>44616.338037465277</v>
-      </c>
-      <c r="B257" s="8" t="s">
-        <v>921</v>
-      </c>
-      <c r="C257" s="8" t="s">
-        <v>922</v>
-      </c>
-      <c r="D257" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="7">
-        <v>44615.455899328706</v>
-      </c>
-      <c r="B258" s="8" t="s">
-        <v>940</v>
-      </c>
-      <c r="C258" s="8" t="s">
-        <v>941</v>
-      </c>
-      <c r="D258" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="7">
-        <v>44270.595877060186</v>
-      </c>
-      <c r="B259" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="C259" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="D259" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="7">
-        <v>44615.463239189819</v>
-      </c>
-      <c r="B260" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="C260" s="8" t="s">
-        <v>957</v>
-      </c>
-      <c r="D260" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="7">
-        <v>44662.118739398153</v>
-      </c>
-      <c r="B261" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="C261" s="8" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D261" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="7">
-        <v>44615.86715539352</v>
-      </c>
-      <c r="B262" s="8" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C262" s="8" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D262" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="7">
-        <v>44615.474581851857</v>
-      </c>
-      <c r="B263" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="C263" s="8" t="s">
-        <v>966</v>
-      </c>
-      <c r="D263" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="7">
-        <v>44615.47543309028</v>
-      </c>
-      <c r="B264" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="C264" s="8" t="s">
-        <v>967</v>
-      </c>
-      <c r="D264" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="7">
-        <v>44270.615952638887</v>
-      </c>
-      <c r="B265" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="C265" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="D265" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="7">
-        <v>44615.564467662036</v>
-      </c>
-      <c r="B266" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="C266" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="D266" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="7">
-        <v>44273.619053761577</v>
-      </c>
-      <c r="B267" s="8" t="s">
-        <v>886</v>
-      </c>
-      <c r="C267" s="8" t="s">
-        <v>887</v>
-      </c>
-      <c r="D267" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="7">
-        <v>44615.772343784723</v>
-      </c>
-      <c r="B268" s="8" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C268" s="8" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D268" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="7">
-        <v>44616.409324201391</v>
-      </c>
-      <c r="B269" s="8" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C269" s="8" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D269" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="7">
-        <v>44270.598686770834</v>
-      </c>
-      <c r="B270" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="C270" s="8" t="s">
-        <v>707</v>
-      </c>
-      <c r="D270" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="7">
-        <v>44615.495569212959</v>
-      </c>
-      <c r="B271" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="C271" s="8" t="s">
-        <v>988</v>
-      </c>
-      <c r="D271" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="7">
-        <v>44615.554326909725</v>
-      </c>
-      <c r="B272" s="8" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C272" s="8" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D272" s="8" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="7">
-        <v>44270.591660891208</v>
-      </c>
-      <c r="B273" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="C273" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="D273" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="7">
-        <v>44623.098853472227</v>
-      </c>
-      <c r="B274" s="8" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C274" s="8" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D274" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="7">
-        <v>44273.633917743056</v>
-      </c>
-      <c r="B275" s="8" t="s">
-        <v>888</v>
-      </c>
-      <c r="C275" s="8" t="s">
-        <v>889</v>
-      </c>
-      <c r="D275" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="7">
-        <v>44270.615185034723</v>
-      </c>
-      <c r="B276" s="8" t="s">
-        <v>730</v>
-      </c>
-      <c r="C276" s="8" t="s">
-        <v>731</v>
-      </c>
-      <c r="D276" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="7">
-        <v>44270.57822314815</v>
-      </c>
-      <c r="B277" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="C277" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="D277" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" s="7">
-        <v>44615.5640102662</v>
-      </c>
-      <c r="B278" s="8" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C278" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="D278" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="7">
-        <v>44615.458194166669</v>
-      </c>
-      <c r="B279" s="8" t="s">
-        <v>945</v>
-      </c>
-      <c r="C279" s="8" t="s">
-        <v>946</v>
-      </c>
-      <c r="D279" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="7">
-        <v>44271.447150497683</v>
-      </c>
-      <c r="B280" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="C280" s="8" t="s">
-        <v>853</v>
-      </c>
-      <c r="D280" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="7">
-        <v>44615.725415810186</v>
-      </c>
-      <c r="B281" s="8" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C281" s="8" t="s">
-        <v>914</v>
-      </c>
-      <c r="D281" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="7">
-        <v>44283.86902293982</v>
-      </c>
-      <c r="B282" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="C282" s="8" t="s">
-        <v>914</v>
-      </c>
-      <c r="D282" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="7">
-        <v>44615.556093900464</v>
-      </c>
-      <c r="B283" s="8" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C283" s="8" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D283" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="7">
-        <v>44270.587308449074</v>
-      </c>
-      <c r="B284" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="C284" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="D284" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="7">
-        <v>44615.634069016203</v>
-      </c>
-      <c r="B285" s="8" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C285" s="8" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D285" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="7">
-        <v>44270.949125439816</v>
-      </c>
-      <c r="B286" s="8" t="s">
-        <v>832</v>
-      </c>
-      <c r="C286" s="8" t="s">
-        <v>833</v>
-      </c>
-      <c r="D286" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="7">
-        <v>44615.622282523153</v>
-      </c>
-      <c r="B287" s="8" t="s">
-        <v>832</v>
-      </c>
-      <c r="C287" s="8" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D287" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="7">
-        <v>44615.48546945602</v>
-      </c>
-      <c r="B288" s="8" t="s">
-        <v>981</v>
-      </c>
-      <c r="C288" s="8" t="s">
-        <v>982</v>
-      </c>
-      <c r="D288" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A289" s="7">
-        <v>44271.57920043981</v>
-      </c>
-      <c r="B289" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="C289" s="8" t="s">
-        <v>857</v>
-      </c>
-      <c r="D289" s="8" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290" s="7">
-        <v>44270.61790798611</v>
-      </c>
-      <c r="B290" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="C290" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="D290" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="7">
-        <v>44615.540750150467</v>
-      </c>
-      <c r="B291" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="C291" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="D291" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="7">
-        <v>44270.961789733796</v>
-      </c>
-      <c r="B292" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="C292" s="8" t="s">
-        <v>835</v>
-      </c>
-      <c r="D292" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293" s="7">
-        <v>44616.817029016209</v>
-      </c>
-      <c r="B293" s="8" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C293" s="8" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D293" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294" s="7">
-        <v>44270.579770104167</v>
-      </c>
-      <c r="B294" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="C294" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="D294" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295" s="7">
-        <v>44615.485400995371</v>
-      </c>
-      <c r="B295" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="C295" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="D295" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A296" s="7">
-        <v>44651.41364136574</v>
-      </c>
-      <c r="B296" s="8" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C296" s="8" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D296" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A297" s="7">
-        <v>44274.406325543983</v>
-      </c>
-      <c r="B297" s="8" t="s">
-        <v>890</v>
-      </c>
-      <c r="C297" s="8" t="s">
-        <v>891</v>
-      </c>
-      <c r="D297" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A298" s="7">
-        <v>44274.415020405097</v>
-      </c>
-      <c r="B298" s="8" t="s">
-        <v>890</v>
-      </c>
-      <c r="C298" s="8" t="s">
-        <v>892</v>
-      </c>
-      <c r="D298" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="7">
-        <v>44615.702736238425</v>
-      </c>
-      <c r="B299" s="8" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C299" s="8" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D299" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A300" s="7">
-        <v>44672.577589537032</v>
-      </c>
-      <c r="B300" s="8" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C300" s="8" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D300" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A301" s="7">
-        <v>44272.942825636579</v>
-      </c>
-      <c r="B301" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="C301" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="D301" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A302" s="7">
-        <v>44615.52537116898</v>
-      </c>
-      <c r="B302" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="C302" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="D302" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A303" s="7">
-        <v>44270.632095324079</v>
-      </c>
-      <c r="B303" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="C303" s="8" t="s">
-        <v>753</v>
-      </c>
-      <c r="D303" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A304" s="7">
-        <v>44270.582522881945</v>
-      </c>
-      <c r="B304" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="C304" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="D304" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A305" s="7">
-        <v>44622.582358530097</v>
-      </c>
-      <c r="B305" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="C305" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="D305" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A306" s="7">
-        <v>44616.378883356483</v>
-      </c>
-      <c r="B306" s="8" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C306" s="8" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D306" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="7">
-        <v>44617.584934687504</v>
-      </c>
-      <c r="B307" s="8" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C307" s="8" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D307" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A308" s="7">
-        <v>44615.516824872684</v>
-      </c>
-      <c r="B308" s="8" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C308" s="8" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A309" s="7">
-        <v>44615.496769756945</v>
-      </c>
-      <c r="B309" s="8" t="s">
-        <v>989</v>
-      </c>
-      <c r="C309" s="8" t="s">
-        <v>990</v>
-      </c>
-      <c r="D309" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A310" s="7">
-        <v>44270.636934629627</v>
-      </c>
-      <c r="B310" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="C310" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="D310" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A311" s="7">
-        <v>44623.478132685181</v>
-      </c>
-      <c r="B311" s="8" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C311" s="8" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D311" s="8" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A312" s="7">
-        <v>44273.360861516208</v>
-      </c>
-      <c r="B312" s="8" t="s">
-        <v>884</v>
-      </c>
-      <c r="C312" s="8" t="s">
-        <v>885</v>
-      </c>
-      <c r="D312" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A313" s="7">
-        <v>44271.411803159717</v>
-      </c>
-      <c r="B313" s="8" t="s">
-        <v>850</v>
-      </c>
-      <c r="C313" s="8" t="s">
-        <v>851</v>
-      </c>
-      <c r="D313" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A314" s="7">
-        <v>44271.656100706023</v>
-      </c>
-      <c r="B314" s="8" t="s">
-        <v>862</v>
-      </c>
-      <c r="C314" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="D314" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A315" s="7">
-        <v>44270.608265381947</v>
-      </c>
-      <c r="B315" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="C315" s="8" t="s">
-        <v>725</v>
-      </c>
-      <c r="D315" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A316" s="7">
-        <v>44631.836532395835</v>
-      </c>
-      <c r="B316" s="8" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C316" s="8" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D316" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A317" s="7">
-        <v>44617.399774108795</v>
-      </c>
-      <c r="B317" s="8" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C317" s="8" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D317" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A318" s="7">
-        <v>44678.069834722221</v>
-      </c>
-      <c r="B318" s="8" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C318" s="8" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D318" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A319" s="7">
-        <v>44622.385943541667</v>
-      </c>
-      <c r="B319" s="8" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C319" s="8" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D319" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A320" s="7">
-        <v>44616.489534293985</v>
-      </c>
-      <c r="B320" s="8" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C320" s="8" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D320" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A321" s="7">
-        <v>44615.552819490738</v>
-      </c>
-      <c r="B321" s="8" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C321" s="8" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D321" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A322" s="7">
-        <v>44617.320590717594</v>
-      </c>
-      <c r="B322" s="8" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C322" s="8" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D322" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A323" s="7">
-        <v>44270.634244328699</v>
-      </c>
-      <c r="B323" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="C323" s="8" t="s">
-        <v>757</v>
-      </c>
-      <c r="D323" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A324" s="7">
-        <v>44615.606156087961</v>
-      </c>
-      <c r="B324" s="8" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C324" s="8" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D324" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A325" s="7">
-        <v>44615.539730636578</v>
-      </c>
-      <c r="B325" s="8" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C325" s="8" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D325" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A326" s="7">
-        <v>44270.586579305556</v>
-      </c>
-      <c r="B326" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="C326" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="D326" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A327" s="7">
-        <v>44615.468958784724</v>
-      </c>
-      <c r="B327" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="C327" s="8" t="s">
-        <v>958</v>
-      </c>
-      <c r="D327" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A328" s="7">
-        <v>44270.614016990745</v>
-      </c>
-      <c r="B328" s="8" t="s">
-        <v>728</v>
-      </c>
-      <c r="C328" s="8" t="s">
-        <v>729</v>
-      </c>
-      <c r="D328" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A329" s="7">
-        <v>44615.532658252312</v>
-      </c>
-      <c r="B329" s="8" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C329" s="8" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D329" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A330" s="7">
-        <v>44270.599152303243</v>
-      </c>
-      <c r="B330" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="C330" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="D330" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A331" s="7">
-        <v>44615.623411932873</v>
-      </c>
-      <c r="B331" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="C331" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="D331" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A332" s="7">
-        <v>44658.186578391207</v>
-      </c>
-      <c r="B332" s="8" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C332" s="8" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D332" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A333" s="7">
-        <v>44270.767412060188</v>
-      </c>
-      <c r="B333" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="C333" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="D333" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A334" s="7">
-        <v>44615.463389988421</v>
-      </c>
-      <c r="B334" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="C334" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="D334" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="G334" s="8" t="s">
-        <v>1177</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D334">
-    <sortCondition ref="B2:B334"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A244">
+    <sortCondition ref="A2:A244"/>
   </sortState>
   <customSheetViews>
     <customSheetView guid="{ADB5F798-9B33-46ED-813A-8874D882110B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A1:D334" xr:uid="{F72EFC42-B158-4BCD-B67F-285E82187EE1}">
+      <autoFilter ref="A1:D334" xr:uid="{CB6A10B7-763F-4F44-9516-D12FE947B6A7}">
         <filterColumn colId="3">
           <filters>
             <filter val="Sim. Eu tenho disponibilidade para avaliar os projetos de pesquisa do IFMA."/>
@@ -12282,17 +7924,23 @@
     </customSheetView>
     <customSheetView guid="{CA496FFB-694F-49A0-A4B3-8377D199B898}" filter="1" showAutoFilter="1">
       <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A1:D334" xr:uid="{A75DFC81-2B5F-4D27-9E4C-7A5B371F9E55}"/>
+      <autoFilter ref="A1:D334" xr:uid="{4026A88C-428D-4796-A478-8C735255B08D}"/>
     </customSheetView>
     <customSheetView guid="{312FCE6F-1B75-4155-8869-7AF19FCC01E7}" filter="1" showAutoFilter="1">
       <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A1:D334" xr:uid="{E4301CF3-460D-4A6C-8560-67FBF7DFCB46}"/>
+      <autoFilter ref="A1:D334" xr:uid="{F386420F-50CA-4E2A-B4F0-0ED50AEB2250}"/>
     </customSheetView>
     <customSheetView guid="{B537ACDA-06F7-4B88-8897-16E39670631A}" filter="1" showAutoFilter="1">
       <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A1:D334" xr:uid="{6C9142EB-00E4-4B7A-8695-326B6112BE07}"/>
+      <autoFilter ref="A1:D334" xr:uid="{B3F2F851-6541-49A8-BD59-71A62CD0D677}"/>
     </customSheetView>
   </customSheetViews>
+  <conditionalFormatting sqref="A2:A244">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>#REF!="Não. Neste momento não terei disponibilidade para avaliar os projetos de pesquisa do IFMA."</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BotCadastrarAvaliador/assets/cadastro-de-avaliador-interno-externo.xlsx
+++ b/BotCadastrarAvaliador/assets/cadastro-de-avaliador-interno-externo.xlsx
@@ -1,38 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2225318\Documents\Dev\bot-cadastrar-avaliador\BotCadastrarAvaliador\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Developer\.NET\new\bot-cadastrar-avaliador\BotCadastrarAvaliador\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C883B65A-1BDF-4B35-A391-1A65A1A26E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internos" sheetId="1" r:id="rId1"/>
     <sheet name="Externos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Z_312FCE6F_1B75_4155_8869_7AF19FCC01E7_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$A$235</definedName>
-    <definedName name="Z_ADB5F798_9B33_46ED_813A_8874D882110B_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$A$235</definedName>
-    <definedName name="Z_B537ACDA_06F7_4B88_8897_16E39670631A_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$A$235</definedName>
-    <definedName name="Z_CA496FFB_694F_49A0_A4B3_8377D199B898_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$A$235</definedName>
+    <definedName name="Z_312FCE6F_1B75_4155_8869_7AF19FCC01E7_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$A$234</definedName>
+    <definedName name="Z_ADB5F798_9B33_46ED_813A_8874D882110B_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$A$234</definedName>
+    <definedName name="Z_B537ACDA_06F7_4B88_8897_16E39670631A_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$A$234</definedName>
+    <definedName name="Z_CA496FFB_694F_49A0_A4B3_8377D199B898_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$A$234</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filtro 4" guid="{312FCE6F-1B75-4155-8869-7AF19FCC01E7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filtro 1" guid="{B537ACDA-06F7-4B88-8897-16E39670631A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filtro 2" guid="{CA496FFB-694F-49A0-A4B3-8377D199B898}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filtro 3" guid="{ADB5F798-9B33-46ED-813A-8874D882110B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filtro 2" guid="{CA496FFB-694F-49A0-A4B3-8377D199B898}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filtro 1" guid="{B537ACDA-06F7-4B88-8897-16E39670631A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filtro 4" guid="{312FCE6F-1B75-4155-8869-7AF19FCC01E7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="859">
   <si>
     <t>NOME</t>
   </si>
@@ -1097,9 +1098,6 @@
   </si>
   <si>
     <t>Aline Freitas da Silva de Carvalho</t>
-  </si>
-  <si>
-    <t>Barbara</t>
   </si>
   <si>
     <t>Karla Suzy Andrade Pitombeira</t>
@@ -2617,7 +2615,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2945,14 +2943,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:A726"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
@@ -2974,27 +2972,27 @@
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3004,12 +3002,12 @@
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3019,17 +3017,17 @@
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3039,7 +3037,7 @@
     </row>
     <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3059,7 +3057,7 @@
     </row>
     <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3074,7 +3072,7 @@
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3094,22 +3092,22 @@
     </row>
     <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3119,27 +3117,27 @@
     </row>
     <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3154,12 +3152,12 @@
     </row>
     <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3174,7 +3172,7 @@
     </row>
     <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3189,7 +3187,7 @@
     </row>
     <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3199,42 +3197,42 @@
     </row>
     <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3249,12 +3247,12 @@
     </row>
     <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3264,27 +3262,27 @@
     </row>
     <row r="61" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3294,7 +3292,7 @@
     </row>
     <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3314,7 +3312,7 @@
     </row>
     <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3334,17 +3332,17 @@
     </row>
     <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3364,17 +3362,17 @@
     </row>
     <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3404,7 +3402,7 @@
     </row>
     <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3414,7 +3412,7 @@
     </row>
     <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3424,7 +3422,7 @@
     </row>
     <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3434,7 +3432,7 @@
     </row>
     <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3444,7 +3442,7 @@
     </row>
     <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3454,7 +3452,7 @@
     </row>
     <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3469,17 +3467,17 @@
     </row>
     <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3494,37 +3492,37 @@
     </row>
     <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3534,7 +3532,7 @@
     </row>
     <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3549,7 +3547,7 @@
     </row>
     <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3564,17 +3562,17 @@
     </row>
     <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3584,22 +3582,22 @@
     </row>
     <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3609,17 +3607,17 @@
     </row>
     <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3629,7 +3627,7 @@
     </row>
     <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3644,12 +3642,12 @@
     </row>
     <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3664,7 +3662,7 @@
     </row>
     <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3674,12 +3672,12 @@
     </row>
     <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3689,7 +3687,7 @@
     </row>
     <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3699,12 +3697,12 @@
     </row>
     <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3714,7 +3712,7 @@
     </row>
     <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3724,22 +3722,22 @@
     </row>
     <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3769,7 +3767,7 @@
     </row>
     <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3784,7 +3782,7 @@
     </row>
     <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3794,7 +3792,7 @@
     </row>
     <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3809,7 +3807,7 @@
     </row>
     <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3819,22 +3817,22 @@
     </row>
     <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3879,7 +3877,7 @@
     </row>
     <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3894,12 +3892,12 @@
     </row>
     <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3909,12 +3907,12 @@
     </row>
     <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3929,7 +3927,7 @@
     </row>
     <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3939,27 +3937,27 @@
     </row>
     <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3969,12 +3967,12 @@
     </row>
     <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3994,22 +3992,22 @@
     </row>
     <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4019,22 +4017,22 @@
     </row>
     <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4044,12 +4042,12 @@
     </row>
     <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4059,12 +4057,12 @@
     </row>
     <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4079,7 +4077,7 @@
     </row>
     <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4099,17 +4097,17 @@
     </row>
     <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4124,37 +4122,37 @@
     </row>
     <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4164,12 +4162,12 @@
     </row>
     <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4179,7 +4177,7 @@
     </row>
     <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4199,7 +4197,7 @@
     </row>
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4214,7 +4212,7 @@
     </row>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4244,12 +4242,12 @@
     </row>
     <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4279,12 +4277,12 @@
     </row>
     <row r="264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4294,7 +4292,7 @@
     </row>
     <row r="267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4304,17 +4302,17 @@
     </row>
     <row r="269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4329,7 +4327,7 @@
     </row>
     <row r="274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4344,12 +4342,12 @@
     </row>
     <row r="277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4359,7 +4357,7 @@
     </row>
     <row r="280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4369,7 +4367,7 @@
     </row>
     <row r="282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4379,7 +4377,7 @@
     </row>
     <row r="284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4394,17 +4392,17 @@
     </row>
     <row r="287" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4414,27 +4412,27 @@
     </row>
     <row r="291" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4444,7 +4442,7 @@
     </row>
     <row r="297" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4454,17 +4452,17 @@
     </row>
     <row r="299" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4474,7 +4472,7 @@
     </row>
     <row r="303" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4489,7 +4487,7 @@
     </row>
     <row r="306" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4504,7 +4502,7 @@
     </row>
     <row r="309" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4519,12 +4517,12 @@
     </row>
     <row r="312" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4539,42 +4537,42 @@
     </row>
     <row r="316" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4584,7 +4582,7 @@
     </row>
     <row r="325" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4599,7 +4597,7 @@
     </row>
     <row r="328" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4609,67 +4607,67 @@
     </row>
     <row r="330" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="337" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="339" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="342" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="343" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4679,7 +4677,7 @@
     </row>
     <row r="344" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="345" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4694,12 +4692,12 @@
     </row>
     <row r="347" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="348" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4709,7 +4707,7 @@
     </row>
     <row r="350" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="351" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4724,22 +4722,22 @@
     </row>
     <row r="353" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="354" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="355" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="357" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4749,12 +4747,12 @@
     </row>
     <row r="358" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="359" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="360" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4764,17 +4762,17 @@
     </row>
     <row r="361" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="363" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="364" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4784,12 +4782,12 @@
     </row>
     <row r="365" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="366" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="367" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4799,17 +4797,17 @@
     </row>
     <row r="368" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="369" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="370" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="371" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4819,17 +4817,17 @@
     </row>
     <row r="372" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="375" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4839,32 +4837,32 @@
     </row>
     <row r="376" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="377" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="378" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="379" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="381" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="382" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4874,22 +4872,22 @@
     </row>
     <row r="383" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="384" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="385" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="386" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="387" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4899,7 +4897,7 @@
     </row>
     <row r="388" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="389" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4909,17 +4907,17 @@
     </row>
     <row r="390" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="391" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="392" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="393" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4929,22 +4927,22 @@
     </row>
     <row r="394" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="395" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="396" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="397" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="398" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4954,17 +4952,17 @@
     </row>
     <row r="399" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="400" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="401" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="402" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4984,7 +4982,7 @@
     </row>
     <row r="405" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="406" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4994,17 +4992,17 @@
     </row>
     <row r="407" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="408" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="409" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="410" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5034,12 +5032,12 @@
     </row>
     <row r="415" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="417" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5049,7 +5047,7 @@
     </row>
     <row r="418" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="419" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5059,7 +5057,7 @@
     </row>
     <row r="420" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="421" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5069,17 +5067,17 @@
     </row>
     <row r="422" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="423" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="424" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="425" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5094,12 +5092,12 @@
     </row>
     <row r="427" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="428" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="429" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5109,17 +5107,17 @@
     </row>
     <row r="430" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="431" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="432" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5134,12 +5132,12 @@
     </row>
     <row r="435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5149,37 +5147,37 @@
     </row>
     <row r="438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5189,12 +5187,12 @@
     </row>
     <row r="446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5219,17 +5217,17 @@
     </row>
     <row r="452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5239,7 +5237,7 @@
     </row>
     <row r="456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5259,12 +5257,12 @@
     </row>
     <row r="460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5279,17 +5277,17 @@
     </row>
     <row r="464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5299,17 +5297,17 @@
     </row>
     <row r="468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5339,17 +5337,17 @@
     </row>
     <row r="476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5359,7 +5357,7 @@
     </row>
     <row r="480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5374,42 +5372,42 @@
     </row>
     <row r="483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5419,7 +5417,7 @@
     </row>
     <row r="492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5434,7 +5432,7 @@
     </row>
     <row r="495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5449,7 +5447,7 @@
     </row>
     <row r="498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5469,17 +5467,17 @@
     </row>
     <row r="502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5504,7 +5502,7 @@
     </row>
     <row r="509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5524,12 +5522,12 @@
     </row>
     <row r="513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5539,12 +5537,12 @@
     </row>
     <row r="516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5564,17 +5562,17 @@
     </row>
     <row r="521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5584,12 +5582,12 @@
     </row>
     <row r="525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5599,7 +5597,7 @@
     </row>
     <row r="528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5614,17 +5612,17 @@
     </row>
     <row r="531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5649,7 +5647,7 @@
     </row>
     <row r="538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5669,17 +5667,17 @@
     </row>
     <row r="542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5694,17 +5692,17 @@
     </row>
     <row r="547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5714,7 +5712,7 @@
     </row>
     <row r="551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5759,7 +5757,7 @@
     </row>
     <row r="560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5774,17 +5772,17 @@
     </row>
     <row r="563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5799,7 +5797,7 @@
     </row>
     <row r="568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5809,7 +5807,7 @@
     </row>
     <row r="570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5819,12 +5817,12 @@
     </row>
     <row r="572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5834,7 +5832,7 @@
     </row>
     <row r="575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5854,12 +5852,12 @@
     </row>
     <row r="579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5874,7 +5872,7 @@
     </row>
     <row r="583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5884,7 +5882,7 @@
     </row>
     <row r="585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5904,12 +5902,12 @@
     </row>
     <row r="589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5934,7 +5932,7 @@
     </row>
     <row r="595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5944,7 +5942,7 @@
     </row>
     <row r="597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5954,17 +5952,17 @@
     </row>
     <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5979,7 +5977,7 @@
     </row>
     <row r="604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5989,12 +5987,12 @@
     </row>
     <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6009,7 +6007,7 @@
     </row>
     <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6019,7 +6017,7 @@
     </row>
     <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6029,22 +6027,22 @@
     </row>
     <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6059,7 +6057,7 @@
     </row>
     <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6074,7 +6072,7 @@
     </row>
     <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6084,12 +6082,12 @@
     </row>
     <row r="625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6393,7 +6391,7 @@
       <c r="A726" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B670">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B670">
     <sortCondition ref="A2:A670"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6402,15 +6400,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A235"/>
+  <dimension ref="A1:A234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6431,7 +6429,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -6446,7 +6444,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -6491,32 +6489,32 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
@@ -6531,7 +6529,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
@@ -6551,62 +6549,62 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>410</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>300</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>318</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
@@ -6616,47 +6614,47 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>391</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
@@ -6666,72 +6664,72 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>447</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>431</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>389</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>441</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>351</v>
+        <v>458</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
@@ -6751,127 +6749,127 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>442</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>296</v>
+        <v>411</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>412</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>287</v>
+        <v>462</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>463</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>289</v>
+        <v>463</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>464</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>324</v>
+        <v>464</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>465</v>
+        <v>422</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>400</v>
+        <v>465</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>466</v>
+        <v>305</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>305</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>467</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>468</v>
+        <v>283</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>283</v>
+        <v>394</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
@@ -6881,67 +6879,67 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>396</v>
+        <v>291</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>291</v>
+        <v>468</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>469</v>
+        <v>337</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>288</v>
+        <v>469</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>470</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>340</v>
+        <v>470</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
@@ -6966,12 +6964,12 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>475</v>
+        <v>379</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>380</v>
+        <v>475</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
@@ -6981,12 +6979,12 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>477</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>377</v>
+        <v>477</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
@@ -6996,47 +6994,47 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>479</v>
+        <v>431</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>480</v>
+        <v>342</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>342</v>
+        <v>480</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>481</v>
+        <v>353</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>424</v>
+        <v>481</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>482</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
@@ -7046,27 +7044,27 @@
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>403</v>
+        <v>482</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>483</v>
+        <v>306</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>306</v>
+        <v>483</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>484</v>
+        <v>366</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>367</v>
+        <v>484</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
@@ -7076,202 +7074,202 @@
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>486</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>356</v>
+        <v>486</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>487</v>
+        <v>403</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>425</v>
+        <v>316</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>426</v>
+        <v>487</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>488</v>
+        <v>327</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>284</v>
+        <v>488</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>489</v>
+        <v>435</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>393</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>297</v>
+        <v>447</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>490</v>
+        <v>339</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>339</v>
+        <v>442</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>372</v>
+        <v>490</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>491</v>
+        <v>326</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>280</v>
+        <v>413</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>414</v>
+        <v>491</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>492</v>
+        <v>414</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>347</v>
+        <v>492</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>493</v>
+        <v>281</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>281</v>
+        <v>415</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>416</v>
+        <v>302</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>312</v>
+        <v>416</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
@@ -7281,47 +7279,47 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>418</v>
+        <v>279</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>310</v>
+        <v>443</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>444</v>
+        <v>345</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>349</v>
+        <v>290</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>290</v>
+        <v>493</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
@@ -7331,17 +7329,17 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>495</v>
+        <v>356</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>405</v>
+        <v>495</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
@@ -7351,87 +7349,87 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>497</v>
+        <v>436</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>437</v>
+        <v>292</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>292</v>
+        <v>426</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>388</v>
+        <v>497</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>498</v>
+        <v>298</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>298</v>
+        <v>405</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>350</v>
+        <v>511</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>512</v>
+        <v>427</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>428</v>
+        <v>364</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>325</v>
+        <v>418</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>419</v>
+        <v>299</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>299</v>
+        <v>498</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
@@ -7451,27 +7449,27 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>502</v>
+        <v>373</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>338</v>
+        <v>444</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
@@ -7481,22 +7479,22 @@
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>504</v>
+        <v>382</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>360</v>
+        <v>504</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
@@ -7506,32 +7504,32 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>506</v>
+        <v>330</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>330</v>
+        <v>437</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>438</v>
+        <v>506</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>507</v>
+        <v>381</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>394</v>
+        <v>507</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
@@ -7541,22 +7539,22 @@
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>509</v>
+        <v>363</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
@@ -7566,42 +7564,49 @@
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>430</v>
+        <v>509</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>510</v>
+        <v>361</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>362</v>
+        <v>293</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>293</v>
+        <v>510</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" s="3" t="s">
         <v>319</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A244">
-    <sortCondition ref="A2:A244"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A243">
+    <sortCondition ref="A2:A243"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{B537ACDA-06F7-4B88-8897-16E39670631A}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+      <autoFilter ref="A1:D334" xr:uid="{A359C891-F9CA-4B9D-AC49-AB1E7E955135}"/>
+    </customSheetView>
+    <customSheetView guid="{312FCE6F-1B75-4155-8869-7AF19FCC01E7}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+      <autoFilter ref="A1:D334" xr:uid="{3FD39756-B339-406C-B87A-6C144471D4C8}"/>
+    </customSheetView>
+    <customSheetView guid="{CA496FFB-694F-49A0-A4B3-8377D199B898}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+      <autoFilter ref="A1:D334" xr:uid="{1725226E-84C0-436B-AD4A-93D6CBE5816D}"/>
+    </customSheetView>
     <customSheetView guid="{ADB5F798-9B33-46ED-813A-8874D882110B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A1:D334">
+      <autoFilter ref="A1:D334" xr:uid="{DBA8D433-C8B0-4B1D-BEF9-9D0E26F28EA1}">
         <filterColumn colId="3">
           <filters>
             <filter val="Sim. Eu tenho disponibilidade para avaliar os projetos de pesquisa do IFMA."/>
@@ -7609,20 +7614,8 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{CA496FFB-694F-49A0-A4B3-8377D199B898}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A1:D334"/>
-    </customSheetView>
-    <customSheetView guid="{312FCE6F-1B75-4155-8869-7AF19FCC01E7}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A1:D334"/>
-    </customSheetView>
-    <customSheetView guid="{B537ACDA-06F7-4B88-8897-16E39670631A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A1:D334"/>
-    </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="A2:A235">
+  <conditionalFormatting sqref="A2:A234">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>#REF!="Não. Neste momento não terei disponibilidade para avaliar os projetos de pesquisa do IFMA."</formula>
     </cfRule>
